--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1479157.368958682</v>
+        <v>1474287.191673946</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8296541.918375791</v>
+        <v>8296541.918375795</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6319877.606205897</v>
+        <v>6319877.606205896</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>300.2783333401841</v>
+        <v>64.47954377232128</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.54237137282634</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>365.0430549509272</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3065767137811281</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
         <v>149.1476881355087</v>
@@ -1460,16 +1460,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>85.49700326571894</v>
       </c>
       <c r="G12" t="n">
         <v>117.7848734220132</v>
       </c>
       <c r="H12" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>170.8836040586646</v>
@@ -1508,13 +1508,13 @@
         <v>207.8918312087472</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.6708174907576</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>33.95225673904616</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>185.0912503946672</v>
       </c>
       <c r="T13" t="n">
-        <v>30.28023929597039</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>143.945586367743</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.54237137282634</v>
+        <v>55.19487553168758</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.67893897356169</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>117.7848734220132</v>
       </c>
       <c r="H15" t="n">
-        <v>77.03851849986194</v>
+        <v>15.42664682544295</v>
       </c>
       <c r="I15" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>170.8836040586646</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.8918312087472</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>185.0912503946672</v>
+        <v>162.6036237583441</v>
       </c>
       <c r="T16" t="n">
         <v>229.5134335018853</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V16" t="n">
-        <v>140.3592284061218</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>352.9586120994938</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.6110245726107</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
@@ -1934,7 +1934,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
         <v>117.7848734220132</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>170.8836040586646</v>
@@ -1985,13 +1985,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>227.816073408046</v>
+        <v>58.38971736392311</v>
       </c>
       <c r="X18" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
-        <v>139.5613327310493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2004,7 +2004,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>55.01406026236052</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>154.3954127131211</v>
       </c>
       <c r="H19" t="n">
         <v>145.915760422358</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U19" t="n">
         <v>282.5352749748386</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>325.1018910161769</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U20" t="n">
-        <v>230.8504733844166</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>18.47981672564649</v>
+        <v>135.3733565058594</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I22" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>59.00621414742496</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5352749748386</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.62638459981761</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>407.0231810178811</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T23" t="n">
-        <v>198.3236772125209</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>352.4621750999447</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -2490,10 +2490,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>90.02789378814377</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S25" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>44.08342407114527</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>392.3409159428708</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>70.14460005866096</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2696,7 +2696,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>227.8160734080469</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>27.49240896277091</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.16341786525869</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V28" t="n">
-        <v>2.454867913750083</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2781,7 +2781,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H29" t="n">
-        <v>267.5714487982458</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>83.5249219004827</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>104.6770998313136</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.1412938206196</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>6.654620469362555</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.46439750889374</v>
       </c>
       <c r="G32" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>242.1716931988551</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>127.1167986179135</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -3204,10 +3204,10 @@
         <v>165.6708174907576</v>
       </c>
       <c r="H34" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T34" t="n">
         <v>229.5134335018853</v>
@@ -3252,10 +3252,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>215.717125755893</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>201.6497198115289</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I35" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.4758086907236</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>100.3764690297431</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>48.40978978136296</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H36" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>11.90382589688436</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>88.38869863264435</v>
       </c>
       <c r="U36" t="n">
         <v>207.8918312087472</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>177.5210747552478</v>
@@ -3426,25 +3426,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>82.47838281978983</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6708174907576</v>
+        <v>8.406027924505398</v>
       </c>
       <c r="H37" t="n">
         <v>145.915760422358</v>
       </c>
       <c r="I37" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>82.16341786525869</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T37" t="n">
         <v>229.5134335018853</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>66.32169534449538</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I38" t="n">
-        <v>1.011396504523795</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,19 +3590,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H39" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>11.90382589688436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>207.8918312087472</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>97.3915411902405</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
@@ -3650,7 +3650,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>71.54600543359001</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -3675,7 +3675,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H40" t="n">
         <v>145.915760422358</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S40" t="n">
         <v>185.0912503946672</v>
@@ -3717,19 +3717,19 @@
         <v>229.5134335018853</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>11.90073539779359</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>160.0742395308563</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>407.0231810178811</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.03474049723422</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>173.2210090040574</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>150.2783710965517</v>
+        <v>45.57998773886143</v>
       </c>
       <c r="C42" t="n">
-        <v>55.07644471073513</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
@@ -3830,13 +3830,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>77.03851849986194</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T42" t="n">
         <v>170.8836040586646</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -3912,13 +3912,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U43" t="n">
         <v>282.5352749748386</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>244.375711493564</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>193.7097527110958</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>125.1608028920756</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>226.9671127660102</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4064,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>44.26917585070986</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>117.0789810792357</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>77.03851849986194</v>
@@ -4112,7 +4112,7 @@
         <v>170.8836040586646</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>207.8918312087472</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4140,22 +4140,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H46" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>82.16341786525869</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S46" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U46" t="n">
         <v>282.5352749748386</v>
@@ -4197,13 +4197,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>14.46326344816257</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>82.54603104162486</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1167.170233841165</v>
+        <v>161.1044830348624</v>
       </c>
       <c r="C11" t="n">
-        <v>1167.170233841165</v>
+        <v>161.1044830348624</v>
       </c>
       <c r="D11" t="n">
-        <v>1167.170233841165</v>
+        <v>161.1044830348624</v>
       </c>
       <c r="E11" t="n">
-        <v>1167.170233841165</v>
+        <v>161.1044830348624</v>
       </c>
       <c r="F11" t="n">
-        <v>750.2757953711427</v>
+        <v>161.1044830348624</v>
       </c>
       <c r="G11" t="n">
-        <v>339.1412690904548</v>
+        <v>161.1044830348624</v>
       </c>
       <c r="H11" t="n">
-        <v>35.82982127208704</v>
+        <v>95.9736307395884</v>
       </c>
       <c r="I11" t="n">
         <v>35.82982127208704</v>
@@ -5044,49 +5044,49 @@
         <v>349.1973608293694</v>
       </c>
       <c r="K11" t="n">
-        <v>544.6617247365753</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L11" t="n">
-        <v>988.0557629786523</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M11" t="n">
-        <v>1188.88009571932</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N11" t="n">
-        <v>1395.952951565348</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O11" t="n">
-        <v>1582.818057635035</v>
+        <v>1217.180740651802</v>
       </c>
       <c r="P11" t="n">
-        <v>1719.877451830168</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q11" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R11" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S11" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T11" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="U11" t="n">
-        <v>1535.900592377455</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="V11" t="n">
-        <v>1535.900592377455</v>
+        <v>1329.088972857371</v>
       </c>
       <c r="W11" t="n">
-        <v>1167.170233841165</v>
+        <v>958.0899378256581</v>
       </c>
       <c r="X11" t="n">
-        <v>1167.170233841165</v>
+        <v>958.0899378256581</v>
       </c>
       <c r="Y11" t="n">
-        <v>1167.170233841165</v>
+        <v>561.5992287462593</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>661.8348815137274</v>
+        <v>658.354738957134</v>
       </c>
       <c r="C12" t="n">
-        <v>511.1806510738195</v>
+        <v>507.7005085172262</v>
       </c>
       <c r="D12" t="n">
-        <v>381.0916836952999</v>
+        <v>377.6115411387066</v>
       </c>
       <c r="E12" t="n">
-        <v>244.6451928061876</v>
+        <v>241.1650502495943</v>
       </c>
       <c r="F12" t="n">
-        <v>244.6451928061876</v>
+        <v>154.8044408902822</v>
       </c>
       <c r="G12" t="n">
-        <v>125.6705731879924</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H12" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I12" t="n">
         <v>35.82982127208704</v>
@@ -5123,7 +5123,7 @@
         <v>249.431949475221</v>
       </c>
       <c r="K12" t="n">
-        <v>611.4888377451302</v>
+        <v>692.8259877172981</v>
       </c>
       <c r="L12" t="n">
         <v>1054.882875987207</v>
@@ -5147,25 +5147,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S12" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T12" t="n">
-        <v>1504.107768077834</v>
+        <v>1618.881362534994</v>
       </c>
       <c r="U12" t="n">
-        <v>1294.11601938213</v>
+        <v>1408.889613839289</v>
       </c>
       <c r="V12" t="n">
-        <v>1071.576017753197</v>
+        <v>1408.889613839289</v>
       </c>
       <c r="W12" t="n">
-        <v>841.4587718864839</v>
+        <v>1178.772367972576</v>
       </c>
       <c r="X12" t="n">
-        <v>841.4587718864839</v>
+        <v>989.4652903225881</v>
       </c>
       <c r="Y12" t="n">
-        <v>662.1445549619912</v>
+        <v>810.1510733980954</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.1331292482737</v>
+        <v>866.2559903556551</v>
       </c>
       <c r="C13" t="n">
-        <v>516.1331292482737</v>
+        <v>696.0508724216443</v>
       </c>
       <c r="D13" t="n">
-        <v>360.5000161507884</v>
+        <v>540.4177593241591</v>
       </c>
       <c r="E13" t="n">
-        <v>360.5000161507884</v>
+        <v>384.8589471833616</v>
       </c>
       <c r="F13" t="n">
-        <v>203.1740813637614</v>
+        <v>384.8589471833616</v>
       </c>
       <c r="G13" t="n">
-        <v>35.82982127208704</v>
+        <v>217.5146870916873</v>
       </c>
       <c r="H13" t="n">
-        <v>35.82982127208704</v>
+        <v>70.12503009940639</v>
       </c>
       <c r="I13" t="n">
         <v>35.82982127208704</v>
@@ -5202,19 +5202,19 @@
         <v>69.09848475894705</v>
       </c>
       <c r="K13" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273075</v>
       </c>
       <c r="L13" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272394</v>
       </c>
       <c r="M13" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781581</v>
       </c>
       <c r="N13" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O13" t="n">
-        <v>1485.680193679921</v>
+        <v>1485.680193679922</v>
       </c>
       <c r="P13" t="n">
         <v>1713.402080241571</v>
@@ -5229,22 +5229,22 @@
         <v>1604.530204619839</v>
       </c>
       <c r="T13" t="n">
-        <v>1573.944104320879</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="U13" t="n">
-        <v>1288.554937679628</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="V13" t="n">
-        <v>1022.575592500453</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="W13" t="n">
-        <v>739.2451904316304</v>
+        <v>1089.368051539012</v>
       </c>
       <c r="X13" t="n">
-        <v>739.2451904316304</v>
+        <v>1089.368051539012</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.1331292482737</v>
+        <v>866.2559903556551</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>634.5487144262972</v>
+        <v>484.7577222961136</v>
       </c>
       <c r="C14" t="n">
-        <v>241.3732129292278</v>
+        <v>91.58222079904419</v>
       </c>
       <c r="D14" t="n">
-        <v>241.3732129292278</v>
+        <v>91.58222079904419</v>
       </c>
       <c r="E14" t="n">
-        <v>95.9736307395884</v>
+        <v>91.58222079904419</v>
       </c>
       <c r="F14" t="n">
-        <v>95.9736307395884</v>
+        <v>91.58222079904419</v>
       </c>
       <c r="G14" t="n">
-        <v>95.9736307395884</v>
+        <v>91.58222079904419</v>
       </c>
       <c r="H14" t="n">
-        <v>95.9736307395884</v>
+        <v>91.58222079904419</v>
       </c>
       <c r="I14" t="n">
         <v>35.82982127208704</v>
       </c>
       <c r="J14" t="n">
-        <v>88.04454835761865</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K14" t="n">
-        <v>199.2809258470409</v>
+        <v>792.5913990714464</v>
       </c>
       <c r="L14" t="n">
-        <v>361.2656335236695</v>
+        <v>954.5761067480751</v>
       </c>
       <c r="M14" t="n">
-        <v>562.0899662643368</v>
+        <v>1155.400439488742</v>
       </c>
       <c r="N14" t="n">
-        <v>769.1628221103653</v>
+        <v>1362.473295334771</v>
       </c>
       <c r="O14" t="n">
-        <v>1212.556860352442</v>
+        <v>1549.338401404458</v>
       </c>
       <c r="P14" t="n">
-        <v>1655.950898594519</v>
+        <v>1686.397795599591</v>
       </c>
       <c r="Q14" t="n">
-        <v>1791.491063604352</v>
+        <v>1758.011407373775</v>
       </c>
       <c r="R14" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S14" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T14" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="U14" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="V14" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="W14" t="n">
-        <v>1420.492028572639</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="X14" t="n">
-        <v>1031.039423505696</v>
+        <v>1281.743177086909</v>
       </c>
       <c r="Y14" t="n">
-        <v>634.5487144262972</v>
+        <v>885.2524680075105</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>649.8201967414832</v>
+        <v>321.0411428710415</v>
       </c>
       <c r="C15" t="n">
-        <v>499.1659663015755</v>
+        <v>170.3869124311337</v>
       </c>
       <c r="D15" t="n">
-        <v>369.0769989230558</v>
+        <v>170.3869124311337</v>
       </c>
       <c r="E15" t="n">
-        <v>369.0769989230558</v>
+        <v>170.3869124311337</v>
       </c>
       <c r="F15" t="n">
-        <v>244.6451928061876</v>
+        <v>170.3869124311337</v>
       </c>
       <c r="G15" t="n">
-        <v>125.6705731879924</v>
+        <v>51.4122928129385</v>
       </c>
       <c r="H15" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I15" t="n">
         <v>35.82982127208704</v>
       </c>
       <c r="J15" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K15" t="n">
-        <v>498.0909927375707</v>
+        <v>692.8259877172981</v>
       </c>
       <c r="L15" t="n">
-        <v>941.4850309796477</v>
+        <v>834.603348544563</v>
       </c>
       <c r="M15" t="n">
-        <v>1275.507915272605</v>
+        <v>1012.632805735864</v>
       </c>
       <c r="N15" t="n">
-        <v>1467.614901647813</v>
+        <v>1204.739792111071</v>
       </c>
       <c r="O15" t="n">
-        <v>1628.9123961558</v>
+        <v>1366.037286619058</v>
       </c>
       <c r="P15" t="n">
-        <v>1745.801362678636</v>
+        <v>1482.926253141895</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R15" t="n">
         <v>1791.491063604352</v>
@@ -5390,19 +5390,19 @@
         <v>1504.107768077834</v>
       </c>
       <c r="U15" t="n">
-        <v>1504.107768077834</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="V15" t="n">
-        <v>1281.567766448901</v>
+        <v>1071.576017753197</v>
       </c>
       <c r="W15" t="n">
-        <v>1051.450520582188</v>
+        <v>841.4587718864839</v>
       </c>
       <c r="X15" t="n">
-        <v>862.1434429321998</v>
+        <v>652.1516942364956</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.8292260077071</v>
+        <v>472.8374773120028</v>
       </c>
     </row>
     <row r="16">
@@ -5424,10 +5424,10 @@
         <v>613.6241174171234</v>
       </c>
       <c r="F16" t="n">
-        <v>456.2981826300964</v>
+        <v>456.2981826300963</v>
       </c>
       <c r="G16" t="n">
-        <v>288.9539225384221</v>
+        <v>288.953922538422</v>
       </c>
       <c r="H16" t="n">
         <v>141.5642655461412</v>
@@ -5442,10 +5442,10 @@
         <v>254.5315649273076</v>
       </c>
       <c r="L16" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272394</v>
       </c>
       <c r="M16" t="n">
-        <v>877.2968956781579</v>
+        <v>877.296895678158</v>
       </c>
       <c r="N16" t="n">
         <v>1196.939252046641</v>
@@ -5460,28 +5460,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R16" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S16" t="n">
-        <v>1521.53685324079</v>
+        <v>1627.244978999964</v>
       </c>
       <c r="T16" t="n">
-        <v>1289.705102228785</v>
+        <v>1395.413227987959</v>
       </c>
       <c r="U16" t="n">
-        <v>1289.705102228785</v>
+        <v>1110.024061346707</v>
       </c>
       <c r="V16" t="n">
-        <v>1147.928103838763</v>
+        <v>1110.024061346707</v>
       </c>
       <c r="W16" t="n">
-        <v>1147.928103838763</v>
+        <v>1110.024061346707</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.928103838763</v>
+        <v>1110.024061346707</v>
       </c>
       <c r="Y16" t="n">
-        <v>924.8160426554061</v>
+        <v>1110.024061346707</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1135.405846666058</v>
+        <v>823.8544749388748</v>
       </c>
       <c r="C17" t="n">
-        <v>742.2303451689888</v>
+        <v>823.8544749388748</v>
       </c>
       <c r="D17" t="n">
-        <v>742.2303451689888</v>
+        <v>438.4133461555425</v>
       </c>
       <c r="E17" t="n">
-        <v>742.2303451689888</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="F17" t="n">
-        <v>325.3359066989666</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G17" t="n">
-        <v>325.3359066989666</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H17" t="n">
         <v>35.82982127208704</v>
@@ -5524,19 +5524,19 @@
         <v>622.4184459954201</v>
       </c>
       <c r="M17" t="n">
-        <v>860.9808241441631</v>
+        <v>823.2427787360874</v>
       </c>
       <c r="N17" t="n">
-        <v>1068.053679990192</v>
+        <v>1030.315634582116</v>
       </c>
       <c r="O17" t="n">
-        <v>1254.918786059878</v>
+        <v>1217.180740651803</v>
       </c>
       <c r="P17" t="n">
-        <v>1391.978180255011</v>
+        <v>1354.240134846936</v>
       </c>
       <c r="Q17" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R17" t="n">
         <v>1791.491063604352</v>
@@ -5545,22 +5545,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T17" t="n">
-        <v>1791.491063604352</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="U17" t="n">
-        <v>1535.900592377455</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="V17" t="n">
-        <v>1535.900592377455</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="W17" t="n">
-        <v>1535.900592377455</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="X17" t="n">
-        <v>1535.900592377455</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="Y17" t="n">
-        <v>1535.900592377455</v>
+        <v>1180.378325544424</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>511.1806510738195</v>
+        <v>786.2666876305956</v>
       </c>
       <c r="C18" t="n">
-        <v>511.1806510738195</v>
+        <v>635.6124571906878</v>
       </c>
       <c r="D18" t="n">
-        <v>381.0916836952999</v>
+        <v>505.5234898121681</v>
       </c>
       <c r="E18" t="n">
-        <v>244.6451928061876</v>
+        <v>369.0769989230558</v>
       </c>
       <c r="F18" t="n">
         <v>244.6451928061876</v>
@@ -5597,49 +5597,49 @@
         <v>249.431949475221</v>
       </c>
       <c r="K18" t="n">
-        <v>654.0844198392274</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L18" t="n">
-        <v>1097.478458081305</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M18" t="n">
-        <v>1275.507915272605</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N18" t="n">
-        <v>1467.614901647813</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O18" t="n">
-        <v>1628.9123961558</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P18" t="n">
-        <v>1745.801362678636</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q18" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R18" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S18" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T18" t="n">
-        <v>1504.107768077834</v>
+        <v>1618.881362534994</v>
       </c>
       <c r="U18" t="n">
-        <v>1294.11601938213</v>
+        <v>1408.889613839289</v>
       </c>
       <c r="V18" t="n">
-        <v>1071.576017753197</v>
+        <v>1186.349612210357</v>
       </c>
       <c r="W18" t="n">
-        <v>841.4587718864839</v>
+        <v>1127.370099721545</v>
       </c>
       <c r="X18" t="n">
-        <v>652.1516942364956</v>
+        <v>938.0630220715569</v>
       </c>
       <c r="Y18" t="n">
-        <v>511.1806510738195</v>
+        <v>938.0630220715569</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.7287983132011</v>
+        <v>444.908884874908</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5236803791903</v>
+        <v>444.908884874908</v>
       </c>
       <c r="D19" t="n">
-        <v>344.5236803791903</v>
+        <v>444.908884874908</v>
       </c>
       <c r="E19" t="n">
-        <v>344.5236803791903</v>
+        <v>444.908884874908</v>
       </c>
       <c r="F19" t="n">
-        <v>288.9539225384221</v>
+        <v>444.908884874908</v>
       </c>
       <c r="G19" t="n">
-        <v>288.9539225384221</v>
+        <v>288.953922538422</v>
       </c>
       <c r="H19" t="n">
         <v>141.5642655461412</v>
@@ -5676,13 +5676,13 @@
         <v>69.09848475894705</v>
       </c>
       <c r="K19" t="n">
-        <v>254.5315649273077</v>
+        <v>254.5315649273076</v>
       </c>
       <c r="L19" t="n">
-        <v>551.2290272394001</v>
+        <v>551.2290272393999</v>
       </c>
       <c r="M19" t="n">
-        <v>877.2968956781581</v>
+        <v>877.2968956781579</v>
       </c>
       <c r="N19" t="n">
         <v>1196.939252046641</v>
@@ -5697,28 +5697,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R19" t="n">
-        <v>1708.497712225303</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="S19" t="n">
-        <v>1708.497712225303</v>
+        <v>1604.530204619839</v>
       </c>
       <c r="T19" t="n">
-        <v>1708.497712225303</v>
+        <v>1372.698453607834</v>
       </c>
       <c r="U19" t="n">
-        <v>1423.108545584052</v>
+        <v>1087.309286966583</v>
       </c>
       <c r="V19" t="n">
-        <v>1157.129200404876</v>
+        <v>1087.309286966583</v>
       </c>
       <c r="W19" t="n">
-        <v>1157.129200404876</v>
+        <v>1087.309286966583</v>
       </c>
       <c r="X19" t="n">
-        <v>923.048878187859</v>
+        <v>853.228964749566</v>
       </c>
       <c r="Y19" t="n">
-        <v>699.9368170045024</v>
+        <v>630.1169035662093</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1187.309732224744</v>
+        <v>1248.483286122634</v>
       </c>
       <c r="C20" t="n">
-        <v>1187.309732224744</v>
+        <v>855.3077846255648</v>
       </c>
       <c r="D20" t="n">
-        <v>801.8686034414116</v>
+        <v>855.3077846255648</v>
       </c>
       <c r="E20" t="n">
-        <v>399.2850785579561</v>
+        <v>452.7242597421093</v>
       </c>
       <c r="F20" t="n">
-        <v>399.2850785579561</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G20" t="n">
-        <v>399.2850785579561</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H20" t="n">
-        <v>95.9736307395884</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I20" t="n">
         <v>35.82982127208704</v>
       </c>
       <c r="J20" t="n">
-        <v>88.04454835761865</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K20" t="n">
-        <v>481.9085979235687</v>
+        <v>460.4337383187916</v>
       </c>
       <c r="L20" t="n">
-        <v>643.8933056001973</v>
+        <v>622.4184459954201</v>
       </c>
       <c r="M20" t="n">
-        <v>844.7176383408646</v>
+        <v>1065.812484237497</v>
       </c>
       <c r="N20" t="n">
-        <v>1051.790494186893</v>
+        <v>1272.885340083526</v>
       </c>
       <c r="O20" t="n">
-        <v>1495.18453242897</v>
+        <v>1459.750446153213</v>
       </c>
       <c r="P20" t="n">
-        <v>1632.243926624104</v>
+        <v>1596.809840348346</v>
       </c>
       <c r="Q20" t="n">
         <v>1703.857538398287</v>
@@ -5782,22 +5782,22 @@
         <v>1791.491063604352</v>
       </c>
       <c r="T20" t="n">
-        <v>1791.491063604352</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="U20" t="n">
-        <v>1558.308767256456</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="V20" t="n">
-        <v>1558.308767256456</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="W20" t="n">
-        <v>1187.309732224744</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="X20" t="n">
-        <v>1187.309732224744</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="Y20" t="n">
-        <v>1187.309732224744</v>
+        <v>1576.869034623823</v>
       </c>
     </row>
     <row r="21">
@@ -5810,13 +5810,13 @@
         <v>321.0411428710415</v>
       </c>
       <c r="C21" t="n">
-        <v>302.3746613299844</v>
+        <v>184.3003787237088</v>
       </c>
       <c r="D21" t="n">
-        <v>172.2856939514647</v>
+        <v>184.3003787237088</v>
       </c>
       <c r="E21" t="n">
-        <v>172.2856939514647</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="F21" t="n">
         <v>47.8538878345965</v>
@@ -5837,22 +5837,22 @@
         <v>692.8259877172981</v>
       </c>
       <c r="L21" t="n">
-        <v>1097.478458081305</v>
+        <v>1054.882875987207</v>
       </c>
       <c r="M21" t="n">
-        <v>1275.507915272605</v>
+        <v>1232.912333178508</v>
       </c>
       <c r="N21" t="n">
-        <v>1467.614901647813</v>
+        <v>1425.019319553715</v>
       </c>
       <c r="O21" t="n">
-        <v>1628.9123961558</v>
+        <v>1586.316814061703</v>
       </c>
       <c r="P21" t="n">
-        <v>1745.801362678636</v>
+        <v>1703.20578058454</v>
       </c>
       <c r="Q21" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R21" t="n">
         <v>1791.491063604352</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>467.4024965776373</v>
+        <v>520.768856290053</v>
       </c>
       <c r="C22" t="n">
-        <v>297.1973786436265</v>
+        <v>350.5637383560422</v>
       </c>
       <c r="D22" t="n">
-        <v>141.5642655461412</v>
+        <v>350.5637383560422</v>
       </c>
       <c r="E22" t="n">
-        <v>141.5642655461412</v>
+        <v>350.5637383560422</v>
       </c>
       <c r="F22" t="n">
-        <v>141.5642655461412</v>
+        <v>350.5637383560422</v>
       </c>
       <c r="G22" t="n">
-        <v>141.5642655461412</v>
+        <v>183.2194782643679</v>
       </c>
       <c r="H22" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I22" t="n">
         <v>35.82982127208704</v>
@@ -5916,10 +5916,10 @@
         <v>254.5315649273076</v>
       </c>
       <c r="L22" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272394</v>
       </c>
       <c r="M22" t="n">
-        <v>877.2968956781579</v>
+        <v>877.296895678158</v>
       </c>
       <c r="N22" t="n">
         <v>1196.939252046641</v>
@@ -5934,28 +5934,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R22" t="n">
-        <v>1791.491063604352</v>
+        <v>1731.888827091801</v>
       </c>
       <c r="S22" t="n">
-        <v>1791.491063604352</v>
+        <v>1731.888827091801</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.659312592347</v>
+        <v>1731.888827091801</v>
       </c>
       <c r="U22" t="n">
-        <v>1274.270145951096</v>
+        <v>1446.49966045055</v>
       </c>
       <c r="V22" t="n">
-        <v>1008.29080077192</v>
+        <v>1446.49966045055</v>
       </c>
       <c r="W22" t="n">
-        <v>724.9603987030978</v>
+        <v>1163.169258381728</v>
       </c>
       <c r="X22" t="n">
-        <v>724.9603987030978</v>
+        <v>929.088936164711</v>
       </c>
       <c r="Y22" t="n">
-        <v>652.6105152689386</v>
+        <v>705.9768749813543</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1275.936709778897</v>
+        <v>919.1860807763758</v>
       </c>
       <c r="C23" t="n">
-        <v>1275.936709778897</v>
+        <v>919.1860807763758</v>
       </c>
       <c r="D23" t="n">
-        <v>1275.936709778897</v>
+        <v>919.1860807763758</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3531848954412</v>
+        <v>516.6025558929203</v>
       </c>
       <c r="F23" t="n">
-        <v>456.458746425419</v>
+        <v>516.6025558929203</v>
       </c>
       <c r="G23" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="H23" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="I23" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J23" t="n">
-        <v>97.53894723026264</v>
+        <v>358.6917597020133</v>
       </c>
       <c r="K23" t="n">
-        <v>478.0606522238916</v>
+        <v>789.3296436322446</v>
       </c>
       <c r="L23" t="n">
-        <v>1038.947876514938</v>
+        <v>951.3143513088731</v>
       </c>
       <c r="M23" t="n">
-        <v>1239.772209255605</v>
+        <v>1152.13868404954</v>
       </c>
       <c r="N23" t="n">
-        <v>1446.845065101634</v>
+        <v>1359.211539895569</v>
       </c>
       <c r="O23" t="n">
-        <v>1633.710171171321</v>
+        <v>1546.076645965256</v>
       </c>
       <c r="P23" t="n">
-        <v>2194.597395462367</v>
+        <v>2106.963870256302</v>
       </c>
       <c r="Q23" t="n">
-        <v>2266.211007236551</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R23" t="n">
         <v>2266.211007236551</v>
       </c>
       <c r="S23" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T23" t="n">
-        <v>2065.884060557237</v>
+        <v>1931.293696805523</v>
       </c>
       <c r="U23" t="n">
-        <v>2065.884060557237</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="V23" t="n">
-        <v>2065.884060557237</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="W23" t="n">
-        <v>2065.884060557237</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="X23" t="n">
-        <v>1676.431455490294</v>
+        <v>1675.703225578626</v>
       </c>
       <c r="Y23" t="n">
-        <v>1676.431455490294</v>
+        <v>1319.680826487773</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>795.7610865032395</v>
+        <v>795.7610865032398</v>
       </c>
       <c r="C24" t="n">
-        <v>645.1068560633317</v>
+        <v>645.1068560633319</v>
       </c>
       <c r="D24" t="n">
-        <v>515.0178886848121</v>
+        <v>515.0178886848123</v>
       </c>
       <c r="E24" t="n">
-        <v>378.5713977956998</v>
+        <v>378.5713977957</v>
       </c>
       <c r="F24" t="n">
-        <v>254.1395916788316</v>
+        <v>254.1395916788317</v>
       </c>
       <c r="G24" t="n">
-        <v>135.1649720606364</v>
+        <v>135.1649720606365</v>
       </c>
       <c r="H24" t="n">
         <v>57.34828670724048</v>
@@ -6068,25 +6068,25 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J24" t="n">
-        <v>64.19135336813757</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K24" t="n">
-        <v>147.2389252309062</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L24" t="n">
-        <v>378.375084820763</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M24" t="n">
-        <v>939.2623091118094</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N24" t="n">
-        <v>1500.149533402856</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O24" t="n">
-        <v>2061.036757693902</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P24" t="n">
-        <v>2177.925724216739</v>
+        <v>1853.482361037493</v>
       </c>
       <c r="Q24" t="n">
         <v>2223.615425142454</v>
@@ -6101,19 +6101,19 @@
         <v>1978.827711710033</v>
       </c>
       <c r="U24" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V24" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W24" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X24" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y24" t="n">
-        <v>947.5574209442009</v>
+        <v>947.5574209442011</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.3741215490029</v>
+        <v>513.8420801700408</v>
       </c>
       <c r="C25" t="n">
-        <v>752.1690036149921</v>
+        <v>513.8420801700408</v>
       </c>
       <c r="D25" t="n">
-        <v>596.5358905175069</v>
+        <v>358.2089670725555</v>
       </c>
       <c r="E25" t="n">
-        <v>440.9770783767094</v>
+        <v>202.6501549317581</v>
       </c>
       <c r="F25" t="n">
-        <v>283.6511435896824</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="G25" t="n">
-        <v>192.7138771370119</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H25" t="n">
         <v>45.32422014473102</v>
@@ -6147,52 +6147,52 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J25" t="n">
-        <v>78.59288363159102</v>
+        <v>78.59288363159104</v>
       </c>
       <c r="K25" t="n">
-        <v>264.0259637999515</v>
+        <v>264.0259637999516</v>
       </c>
       <c r="L25" t="n">
-        <v>560.7234261120439</v>
+        <v>560.723426112044</v>
       </c>
       <c r="M25" t="n">
-        <v>886.7912945508018</v>
+        <v>886.7912945508019</v>
       </c>
       <c r="N25" t="n">
         <v>1206.433650919285</v>
       </c>
       <c r="O25" t="n">
-        <v>1495.174592552565</v>
+        <v>1495.174592552566</v>
       </c>
       <c r="P25" t="n">
-        <v>1722.896479114214</v>
+        <v>1722.896479114215</v>
       </c>
       <c r="Q25" t="n">
         <v>1800.985462476996</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.985462476996</v>
+        <v>1717.992111097947</v>
       </c>
       <c r="S25" t="n">
-        <v>1614.024603492483</v>
+        <v>1717.992111097947</v>
       </c>
       <c r="T25" t="n">
-        <v>1614.024603492483</v>
+        <v>1486.160360085942</v>
       </c>
       <c r="U25" t="n">
-        <v>1614.024603492483</v>
+        <v>1200.771193444691</v>
       </c>
       <c r="V25" t="n">
-        <v>1614.024603492483</v>
+        <v>1200.771193444691</v>
       </c>
       <c r="W25" t="n">
-        <v>1330.694201423661</v>
+        <v>1156.242482261716</v>
       </c>
       <c r="X25" t="n">
-        <v>1330.694201423661</v>
+        <v>922.1621600446988</v>
       </c>
       <c r="Y25" t="n">
-        <v>1107.582140240304</v>
+        <v>699.0500988613421</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.7608764005713</v>
+        <v>1258.794313678774</v>
       </c>
       <c r="C26" t="n">
-        <v>518.7608764005713</v>
+        <v>1258.794313678774</v>
       </c>
       <c r="D26" t="n">
-        <v>518.7608764005713</v>
+        <v>873.3531848954412</v>
       </c>
       <c r="E26" t="n">
-        <v>116.1773515171158</v>
+        <v>873.3531848954412</v>
       </c>
       <c r="F26" t="n">
-        <v>45.32422014473102</v>
+        <v>456.458746425419</v>
       </c>
       <c r="G26" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="H26" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="I26" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J26" t="n">
         <v>358.6917597020133</v>
@@ -6235,43 +6235,43 @@
         <v>631.9128448680642</v>
       </c>
       <c r="M26" t="n">
-        <v>1192.800069159111</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N26" t="n">
-        <v>1399.872925005139</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O26" t="n">
-        <v>1586.738031074826</v>
+        <v>1226.675139524447</v>
       </c>
       <c r="P26" t="n">
-        <v>1779.064598681146</v>
+        <v>1779.064598681145</v>
       </c>
       <c r="Q26" t="n">
-        <v>2178.577482030486</v>
+        <v>2178.577482030485</v>
       </c>
       <c r="R26" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S26" t="n">
-        <v>2145.915725786052</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="T26" t="n">
-        <v>1931.293696805523</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="U26" t="n">
-        <v>1675.703225578626</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="V26" t="n">
-        <v>1675.703225578626</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="W26" t="n">
-        <v>1304.704190546913</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="X26" t="n">
-        <v>915.2515854799702</v>
+        <v>2051.588978256022</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.7608764005713</v>
+        <v>1655.098269176623</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>795.7610865032395</v>
+        <v>795.7610865032398</v>
       </c>
       <c r="C27" t="n">
-        <v>645.1068560633317</v>
+        <v>645.1068560633319</v>
       </c>
       <c r="D27" t="n">
-        <v>515.0178886848121</v>
+        <v>515.0178886848123</v>
       </c>
       <c r="E27" t="n">
-        <v>378.5713977956997</v>
+        <v>378.5713977957</v>
       </c>
       <c r="F27" t="n">
-        <v>254.1395916788316</v>
+        <v>254.1395916788317</v>
       </c>
       <c r="G27" t="n">
-        <v>135.1649720606364</v>
+        <v>135.1649720606365</v>
       </c>
       <c r="H27" t="n">
-        <v>57.34828670724048</v>
+        <v>57.34828670724047</v>
       </c>
       <c r="I27" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J27" t="n">
-        <v>258.926348347865</v>
+        <v>258.9263483478649</v>
       </c>
       <c r="K27" t="n">
-        <v>341.9739202106336</v>
+        <v>750.41403225286</v>
       </c>
       <c r="L27" t="n">
-        <v>902.86114450168</v>
+        <v>892.191393080125</v>
       </c>
       <c r="M27" t="n">
-        <v>1080.890601692981</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N27" t="n">
-        <v>1500.149533402856</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O27" t="n">
-        <v>2061.036757693902</v>
+        <v>1423.62533115462</v>
       </c>
       <c r="P27" t="n">
-        <v>2177.925724216739</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q27" t="n">
-        <v>2223.615425142454</v>
+        <v>2223.615425142453</v>
       </c>
       <c r="R27" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S27" t="n">
         <v>2151.437412779391</v>
@@ -6338,10 +6338,10 @@
         <v>1978.827711710033</v>
       </c>
       <c r="U27" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V27" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W27" t="n">
         <v>1316.178715518682</v>
@@ -6350,7 +6350,7 @@
         <v>1126.871637868694</v>
       </c>
       <c r="Y27" t="n">
-        <v>947.5574209442009</v>
+        <v>947.5574209442011</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7816423781057</v>
+        <v>230.420264995163</v>
       </c>
       <c r="C28" t="n">
-        <v>619.576524444095</v>
+        <v>202.6501549317581</v>
       </c>
       <c r="D28" t="n">
-        <v>463.9434113466098</v>
+        <v>202.6501549317581</v>
       </c>
       <c r="E28" t="n">
-        <v>308.3845992058123</v>
+        <v>202.6501549317581</v>
       </c>
       <c r="F28" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="G28" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="H28" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="I28" t="n">
-        <v>45.32422014473102</v>
+        <v>45.32422014473101</v>
       </c>
       <c r="J28" t="n">
         <v>78.59288363159102</v>
       </c>
       <c r="K28" t="n">
-        <v>264.0259637999515</v>
+        <v>264.0259637999516</v>
       </c>
       <c r="L28" t="n">
-        <v>560.7234261120439</v>
+        <v>560.723426112044</v>
       </c>
       <c r="M28" t="n">
-        <v>886.7912945508018</v>
+        <v>886.7912945508019</v>
       </c>
       <c r="N28" t="n">
         <v>1206.433650919285</v>
       </c>
       <c r="O28" t="n">
-        <v>1495.174592552565</v>
+        <v>1495.174592552566</v>
       </c>
       <c r="P28" t="n">
-        <v>1722.896479114214</v>
+        <v>1722.896479114215</v>
       </c>
       <c r="Q28" t="n">
         <v>1800.985462476996</v>
       </c>
       <c r="R28" t="n">
-        <v>1717.992111097946</v>
+        <v>1717.992111097947</v>
       </c>
       <c r="S28" t="n">
-        <v>1717.992111097946</v>
+        <v>1531.031252113434</v>
       </c>
       <c r="T28" t="n">
-        <v>1717.992111097946</v>
+        <v>1299.199501101429</v>
       </c>
       <c r="U28" t="n">
-        <v>1717.992111097946</v>
+        <v>1013.810334460178</v>
       </c>
       <c r="V28" t="n">
-        <v>1715.512446538603</v>
+        <v>747.8309892810023</v>
       </c>
       <c r="W28" t="n">
-        <v>1432.182044469781</v>
+        <v>464.5005872121799</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.101722252764</v>
+        <v>230.420264995163</v>
       </c>
       <c r="Y28" t="n">
-        <v>974.989661069407</v>
+        <v>230.420264995163</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>708.7739123470992</v>
+        <v>933.4969943629426</v>
       </c>
       <c r="C29" t="n">
-        <v>315.5984108500298</v>
+        <v>933.4969943629426</v>
       </c>
       <c r="D29" t="n">
-        <v>315.5984108500298</v>
+        <v>933.4969943629426</v>
       </c>
       <c r="E29" t="n">
-        <v>315.5984108500298</v>
+        <v>933.4969943629426</v>
       </c>
       <c r="F29" t="n">
-        <v>315.5984108500298</v>
+        <v>516.6025558929203</v>
       </c>
       <c r="G29" t="n">
-        <v>315.5984108500298</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="H29" t="n">
-        <v>45.32422014473102</v>
+        <v>105.4680296122324</v>
       </c>
       <c r="I29" t="n">
         <v>45.32422014473102</v>
@@ -6466,49 +6466,49 @@
         <v>358.6917597020133</v>
       </c>
       <c r="K29" t="n">
-        <v>502.9410506169499</v>
+        <v>469.9281371914356</v>
       </c>
       <c r="L29" t="n">
-        <v>664.9257582935785</v>
+        <v>631.9128448680642</v>
       </c>
       <c r="M29" t="n">
-        <v>865.7500910342458</v>
+        <v>832.7371776087315</v>
       </c>
       <c r="N29" t="n">
-        <v>1072.822946880274</v>
+        <v>1039.81003345476</v>
       </c>
       <c r="O29" t="n">
-        <v>1633.710171171321</v>
+        <v>1226.675139524447</v>
       </c>
       <c r="P29" t="n">
-        <v>2194.597395462367</v>
+        <v>1779.064598681146</v>
       </c>
       <c r="Q29" t="n">
-        <v>2266.211007236551</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R29" t="n">
         <v>2266.211007236551</v>
       </c>
       <c r="S29" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="T29" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="U29" t="n">
-        <v>2266.211007236551</v>
+        <v>2145.915725786052</v>
       </c>
       <c r="V29" t="n">
-        <v>2266.211007236551</v>
+        <v>1803.80891648957</v>
       </c>
       <c r="W29" t="n">
-        <v>1895.211972204838</v>
+        <v>1719.440308509284</v>
       </c>
       <c r="X29" t="n">
-        <v>1505.759367137895</v>
+        <v>1329.987703442341</v>
       </c>
       <c r="Y29" t="n">
-        <v>1109.268658058496</v>
+        <v>933.4969943629426</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J30" t="n">
-        <v>64.19135336813757</v>
+        <v>258.926348347865</v>
       </c>
       <c r="K30" t="n">
-        <v>147.2389252309062</v>
+        <v>750.4140322528601</v>
       </c>
       <c r="L30" t="n">
-        <v>708.1261495219526</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M30" t="n">
-        <v>1269.013373812999</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.900598104045</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O30" t="n">
-        <v>2061.036757693902</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P30" t="n">
-        <v>2177.925724216739</v>
+        <v>1853.482361037493</v>
       </c>
       <c r="Q30" t="n">
         <v>2223.615425142454</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1104.515559462061</v>
+        <v>306.6917775162705</v>
       </c>
       <c r="C31" t="n">
-        <v>934.3104415280502</v>
+        <v>306.6917775162705</v>
       </c>
       <c r="D31" t="n">
-        <v>778.677328430565</v>
+        <v>151.0586644187852</v>
       </c>
       <c r="E31" t="n">
-        <v>623.1185162897675</v>
+        <v>151.0586644187852</v>
       </c>
       <c r="F31" t="n">
-        <v>465.7925815027404</v>
+        <v>151.0586644187852</v>
       </c>
       <c r="G31" t="n">
-        <v>298.4483214110661</v>
+        <v>151.0586644187852</v>
       </c>
       <c r="H31" t="n">
         <v>151.0586644187852</v>
@@ -6621,52 +6621,52 @@
         <v>45.32422014473102</v>
       </c>
       <c r="J31" t="n">
-        <v>78.59288363159102</v>
+        <v>78.59288363159104</v>
       </c>
       <c r="K31" t="n">
-        <v>264.0259637999515</v>
+        <v>264.0259637999516</v>
       </c>
       <c r="L31" t="n">
-        <v>560.7234261120439</v>
+        <v>560.723426112044</v>
       </c>
       <c r="M31" t="n">
-        <v>886.7912945508018</v>
+        <v>886.7912945508019</v>
       </c>
       <c r="N31" t="n">
         <v>1206.433650919285</v>
       </c>
       <c r="O31" t="n">
-        <v>1495.174592552565</v>
+        <v>1495.174592552566</v>
       </c>
       <c r="P31" t="n">
-        <v>1722.896479114214</v>
+        <v>1722.896479114215</v>
       </c>
       <c r="Q31" t="n">
         <v>1800.985462476996</v>
       </c>
       <c r="R31" t="n">
-        <v>1717.992111097946</v>
+        <v>1800.985462476996</v>
       </c>
       <c r="S31" t="n">
-        <v>1593.606965824593</v>
+        <v>1614.024603492484</v>
       </c>
       <c r="T31" t="n">
-        <v>1593.606965824593</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="U31" t="n">
-        <v>1593.606965824593</v>
+        <v>1096.803685839227</v>
       </c>
       <c r="V31" t="n">
-        <v>1327.627620645418</v>
+        <v>830.8243406600517</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.627620645418</v>
+        <v>547.4939385912294</v>
       </c>
       <c r="X31" t="n">
-        <v>1327.627620645418</v>
+        <v>313.4136163742124</v>
       </c>
       <c r="Y31" t="n">
-        <v>1104.515559462061</v>
+        <v>306.6917775162705</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>919.1860807763758</v>
+        <v>432.2445383309862</v>
       </c>
       <c r="C32" t="n">
-        <v>919.1860807763758</v>
+        <v>432.2445383309862</v>
       </c>
       <c r="D32" t="n">
-        <v>919.1860807763758</v>
+        <v>46.80340954765398</v>
       </c>
       <c r="E32" t="n">
-        <v>516.6025558929203</v>
+        <v>46.80340954765398</v>
       </c>
       <c r="F32" t="n">
-        <v>516.6025558929203</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="G32" t="n">
-        <v>105.4680296122324</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H32" t="n">
-        <v>105.4680296122324</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I32" t="n">
         <v>45.32422014473102</v>
@@ -6715,13 +6715,13 @@
         <v>1753.687293450157</v>
       </c>
       <c r="O32" t="n">
-        <v>2057.538001267234</v>
+        <v>1940.552399519844</v>
       </c>
       <c r="P32" t="n">
-        <v>2194.597395462367</v>
+        <v>2106.963870256302</v>
       </c>
       <c r="Q32" t="n">
-        <v>2266.211007236551</v>
+        <v>2178.577482030486</v>
       </c>
       <c r="R32" t="n">
         <v>2266.211007236551</v>
@@ -6736,16 +6736,16 @@
         <v>1931.293696805523</v>
       </c>
       <c r="V32" t="n">
-        <v>1686.675824887487</v>
+        <v>1589.186887509041</v>
       </c>
       <c r="W32" t="n">
-        <v>1315.676789855775</v>
+        <v>1218.187852477328</v>
       </c>
       <c r="X32" t="n">
-        <v>1315.676789855775</v>
+        <v>828.7352474103851</v>
       </c>
       <c r="Y32" t="n">
-        <v>919.1860807763758</v>
+        <v>432.2445383309862</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>795.7610865032402</v>
+        <v>795.7610865032395</v>
       </c>
       <c r="C33" t="n">
-        <v>645.1068560633323</v>
+        <v>645.1068560633317</v>
       </c>
       <c r="D33" t="n">
-        <v>515.0178886848128</v>
+        <v>515.0178886848121</v>
       </c>
       <c r="E33" t="n">
-        <v>378.5713977957005</v>
+        <v>378.5713977956997</v>
       </c>
       <c r="F33" t="n">
-        <v>254.1395916788322</v>
+        <v>254.1395916788316</v>
       </c>
       <c r="G33" t="n">
         <v>135.1649720606364</v>
@@ -6785,46 +6785,46 @@
         <v>750.4140322528601</v>
       </c>
       <c r="L33" t="n">
-        <v>1311.301256543906</v>
+        <v>892.1913930801252</v>
       </c>
       <c r="M33" t="n">
-        <v>1750.227858904804</v>
+        <v>1070.220850271426</v>
       </c>
       <c r="N33" t="n">
-        <v>1942.334845280011</v>
+        <v>1262.327836646633</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.632339787999</v>
+        <v>1423.625331154621</v>
       </c>
       <c r="P33" t="n">
-        <v>2220.521306310835</v>
+        <v>1853.482361037492</v>
       </c>
       <c r="Q33" t="n">
-        <v>2266.211007236551</v>
+        <v>2223.615425142453</v>
       </c>
       <c r="R33" t="n">
-        <v>2266.211007236551</v>
+        <v>2266.21100723655</v>
       </c>
       <c r="S33" t="n">
-        <v>2151.437412779391</v>
+        <v>2151.43741277939</v>
       </c>
       <c r="T33" t="n">
-        <v>1978.827711710033</v>
+        <v>1978.827711710032</v>
       </c>
       <c r="U33" t="n">
-        <v>1768.835963014329</v>
+        <v>1768.835963014328</v>
       </c>
       <c r="V33" t="n">
-        <v>1546.295961385396</v>
+        <v>1546.295961385395</v>
       </c>
       <c r="W33" t="n">
-        <v>1316.178715518683</v>
+        <v>1316.178715518682</v>
       </c>
       <c r="X33" t="n">
         <v>1126.871637868694</v>
       </c>
       <c r="Y33" t="n">
-        <v>947.5574209442016</v>
+        <v>947.5574209442009</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>934.3104415280502</v>
+        <v>695.7583450982406</v>
       </c>
       <c r="C34" t="n">
-        <v>934.3104415280502</v>
+        <v>525.5532271642298</v>
       </c>
       <c r="D34" t="n">
-        <v>778.677328430565</v>
+        <v>525.5532271642298</v>
       </c>
       <c r="E34" t="n">
-        <v>623.1185162897675</v>
+        <v>369.9944150234324</v>
       </c>
       <c r="F34" t="n">
-        <v>465.7925815027404</v>
+        <v>212.6684802364053</v>
       </c>
       <c r="G34" t="n">
-        <v>298.4483214110661</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="H34" t="n">
-        <v>151.0586644187852</v>
+        <v>45.32422014473102</v>
       </c>
       <c r="I34" t="n">
         <v>45.32422014473102</v>
       </c>
       <c r="J34" t="n">
-        <v>78.59288363159102</v>
+        <v>78.59288363159104</v>
       </c>
       <c r="K34" t="n">
-        <v>264.0259637999515</v>
+        <v>264.0259637999516</v>
       </c>
       <c r="L34" t="n">
-        <v>560.7234261120439</v>
+        <v>560.723426112044</v>
       </c>
       <c r="M34" t="n">
-        <v>886.7912945508018</v>
+        <v>886.7912945508019</v>
       </c>
       <c r="N34" t="n">
         <v>1206.433650919285</v>
       </c>
       <c r="O34" t="n">
-        <v>1495.174592552565</v>
+        <v>1495.174592552566</v>
       </c>
       <c r="P34" t="n">
-        <v>1722.896479114214</v>
+        <v>1722.896479114215</v>
       </c>
       <c r="Q34" t="n">
         <v>1800.985462476996</v>
@@ -6885,25 +6885,25 @@
         <v>1800.985462476996</v>
       </c>
       <c r="S34" t="n">
-        <v>1800.985462476996</v>
+        <v>1614.024603492484</v>
       </c>
       <c r="T34" t="n">
-        <v>1569.15371146499</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="U34" t="n">
-        <v>1569.15371146499</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="V34" t="n">
-        <v>1569.15371146499</v>
+        <v>1382.192852480478</v>
       </c>
       <c r="W34" t="n">
-        <v>1285.823309396168</v>
+        <v>1098.862450411656</v>
       </c>
       <c r="X34" t="n">
-        <v>1285.823309396168</v>
+        <v>880.9663637895419</v>
       </c>
       <c r="Y34" t="n">
-        <v>1062.711248212811</v>
+        <v>880.9663637895419</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1390.996317892955</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="C35" t="n">
-        <v>1390.996317892955</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="D35" t="n">
-        <v>1005.555189109623</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="E35" t="n">
-        <v>602.9716642261671</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="F35" t="n">
-        <v>602.9716642261671</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="G35" t="n">
-        <v>399.2850785579561</v>
+        <v>339.1412690904548</v>
       </c>
       <c r="H35" t="n">
-        <v>95.9736307395884</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I35" t="n">
         <v>35.82982127208704</v>
       </c>
       <c r="J35" t="n">
-        <v>349.1973608293694</v>
+        <v>88.04454835761865</v>
       </c>
       <c r="K35" t="n">
-        <v>460.4337383187916</v>
+        <v>199.2809258470409</v>
       </c>
       <c r="L35" t="n">
-        <v>622.4184459954201</v>
+        <v>361.2656335236695</v>
       </c>
       <c r="M35" t="n">
-        <v>823.2427787360874</v>
+        <v>562.0899662643368</v>
       </c>
       <c r="N35" t="n">
-        <v>1266.636816978164</v>
+        <v>769.1628221103653</v>
       </c>
       <c r="O35" t="n">
-        <v>1495.18453242897</v>
+        <v>956.027928180052</v>
       </c>
       <c r="P35" t="n">
-        <v>1632.243926624104</v>
+        <v>1391.978180255011</v>
       </c>
       <c r="Q35" t="n">
-        <v>1703.857538398287</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R35" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S35" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T35" t="n">
-        <v>1791.491063604352</v>
+        <v>1456.573753173323</v>
       </c>
       <c r="U35" t="n">
-        <v>1791.491063604352</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="V35" t="n">
-        <v>1791.491063604352</v>
+        <v>1200.983281946427</v>
       </c>
       <c r="W35" t="n">
-        <v>1791.491063604352</v>
+        <v>829.9842469147143</v>
       </c>
       <c r="X35" t="n">
-        <v>1791.491063604352</v>
+        <v>440.5316418477711</v>
       </c>
       <c r="Y35" t="n">
-        <v>1791.491063604352</v>
+        <v>339.1412690904548</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>716.1908455693326</v>
+        <v>708.4500022771996</v>
       </c>
       <c r="C36" t="n">
-        <v>565.5366151294248</v>
+        <v>557.7957718372918</v>
       </c>
       <c r="D36" t="n">
-        <v>435.4476477509052</v>
+        <v>427.7068044587722</v>
       </c>
       <c r="E36" t="n">
-        <v>299.0011568617929</v>
+        <v>291.2603135696599</v>
       </c>
       <c r="F36" t="n">
-        <v>174.5693507449247</v>
+        <v>166.8285074527917</v>
       </c>
       <c r="G36" t="n">
-        <v>125.6705731879924</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="H36" t="n">
         <v>47.8538878345965</v>
@@ -7016,52 +7016,52 @@
         <v>35.82982127208704</v>
       </c>
       <c r="J36" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K36" t="n">
-        <v>137.7445263582622</v>
+        <v>588.662151980697</v>
       </c>
       <c r="L36" t="n">
-        <v>298.7302814295684</v>
+        <v>730.439512807962</v>
       </c>
       <c r="M36" t="n">
-        <v>742.1243196716455</v>
+        <v>908.4689699992629</v>
       </c>
       <c r="N36" t="n">
-        <v>1185.518357913723</v>
+        <v>1100.57595637447</v>
       </c>
       <c r="O36" t="n">
-        <v>1628.9123961558</v>
+        <v>1261.873450882457</v>
       </c>
       <c r="P36" t="n">
-        <v>1745.801362678636</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q36" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R36" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S36" t="n">
-        <v>1676.717469147192</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T36" t="n">
-        <v>1676.717469147192</v>
+        <v>1702.209549834004</v>
       </c>
       <c r="U36" t="n">
-        <v>1466.725720451488</v>
+        <v>1492.2178011383</v>
       </c>
       <c r="V36" t="n">
-        <v>1466.725720451488</v>
+        <v>1269.677799509367</v>
       </c>
       <c r="W36" t="n">
-        <v>1236.608474584775</v>
+        <v>1039.560553642654</v>
       </c>
       <c r="X36" t="n">
-        <v>1047.301396934787</v>
+        <v>1039.560553642654</v>
       </c>
       <c r="Y36" t="n">
-        <v>867.987180010294</v>
+        <v>860.2463367181609</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1008.127540453174</v>
+        <v>361.9155334958589</v>
       </c>
       <c r="C37" t="n">
-        <v>924.8160426554061</v>
+        <v>191.7104155618481</v>
       </c>
       <c r="D37" t="n">
-        <v>769.1829295579209</v>
+        <v>191.7104155618481</v>
       </c>
       <c r="E37" t="n">
-        <v>613.6241174171234</v>
+        <v>191.7104155618481</v>
       </c>
       <c r="F37" t="n">
-        <v>456.2981826300964</v>
+        <v>191.7104155618481</v>
       </c>
       <c r="G37" t="n">
-        <v>288.9539225384221</v>
+        <v>183.2194782643679</v>
       </c>
       <c r="H37" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I37" t="n">
         <v>35.82982127208704</v>
@@ -7098,13 +7098,13 @@
         <v>69.09848475894705</v>
       </c>
       <c r="K37" t="n">
-        <v>254.5315649273075</v>
+        <v>254.5315649273077</v>
       </c>
       <c r="L37" t="n">
-        <v>551.2290272393998</v>
+        <v>551.2290272394001</v>
       </c>
       <c r="M37" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781581</v>
       </c>
       <c r="N37" t="n">
         <v>1196.939252046641</v>
@@ -7122,25 +7122,25 @@
         <v>1708.497712225303</v>
       </c>
       <c r="S37" t="n">
-        <v>1708.497712225303</v>
+        <v>1521.53685324079</v>
       </c>
       <c r="T37" t="n">
-        <v>1476.665961213297</v>
+        <v>1289.705102228785</v>
       </c>
       <c r="U37" t="n">
-        <v>1476.665961213297</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="V37" t="n">
-        <v>1476.665961213297</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.335559144475</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="X37" t="n">
-        <v>1193.335559144475</v>
+        <v>770.2356133705168</v>
       </c>
       <c r="Y37" t="n">
-        <v>1193.335559144475</v>
+        <v>547.1235521871602</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36.85143390291915</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="C38" t="n">
-        <v>36.85143390291915</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="D38" t="n">
-        <v>36.85143390291915</v>
+        <v>1285.75465337052</v>
       </c>
       <c r="E38" t="n">
-        <v>36.85143390291915</v>
+        <v>883.1711284870646</v>
       </c>
       <c r="F38" t="n">
-        <v>36.85143390291915</v>
+        <v>466.2766900170424</v>
       </c>
       <c r="G38" t="n">
-        <v>36.85143390291915</v>
+        <v>399.2850785579561</v>
       </c>
       <c r="H38" t="n">
-        <v>36.85143390291915</v>
+        <v>95.97363073958837</v>
       </c>
       <c r="I38" t="n">
         <v>35.82982127208704</v>
       </c>
       <c r="J38" t="n">
-        <v>88.04454835761865</v>
+        <v>109.4706396450396</v>
       </c>
       <c r="K38" t="n">
-        <v>199.2809258470409</v>
+        <v>220.7070171344619</v>
       </c>
       <c r="L38" t="n">
-        <v>361.2656335236695</v>
+        <v>664.101055376539</v>
       </c>
       <c r="M38" t="n">
-        <v>804.6596717657467</v>
+        <v>864.9253881172062</v>
       </c>
       <c r="N38" t="n">
-        <v>1068.053679990192</v>
+        <v>1308.319426359283</v>
       </c>
       <c r="O38" t="n">
-        <v>1254.918786059878</v>
+        <v>1495.18453242897</v>
       </c>
       <c r="P38" t="n">
-        <v>1391.978180255011</v>
+        <v>1632.243926624104</v>
       </c>
       <c r="Q38" t="n">
-        <v>1791.491063604352</v>
+        <v>1703.857538398287</v>
       </c>
       <c r="R38" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S38" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T38" t="n">
-        <v>1791.491063604352</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="U38" t="n">
-        <v>1535.900592377455</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="V38" t="n">
-        <v>1193.793783080974</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="W38" t="n">
-        <v>822.7947480492612</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="X38" t="n">
-        <v>433.342142982318</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="Y38" t="n">
-        <v>36.85143390291915</v>
+        <v>1671.195782153852</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>542.8602618955322</v>
+        <v>559.979444825578</v>
       </c>
       <c r="C39" t="n">
-        <v>392.2060314556244</v>
+        <v>409.3252143856701</v>
       </c>
       <c r="D39" t="n">
-        <v>262.1170640771047</v>
+        <v>279.2362470071504</v>
       </c>
       <c r="E39" t="n">
-        <v>125.6705731879924</v>
+        <v>279.2362470071504</v>
       </c>
       <c r="F39" t="n">
-        <v>125.6705731879924</v>
+        <v>154.8044408902822</v>
       </c>
       <c r="G39" t="n">
-        <v>125.6705731879924</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H39" t="n">
-        <v>47.8538878345965</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I39" t="n">
         <v>35.82982127208704</v>
@@ -7256,22 +7256,22 @@
         <v>249.431949475221</v>
       </c>
       <c r="K39" t="n">
-        <v>332.4795213379896</v>
+        <v>347.0994818007092</v>
       </c>
       <c r="L39" t="n">
-        <v>773.0350949020592</v>
+        <v>488.8768426279742</v>
       </c>
       <c r="M39" t="n">
-        <v>951.06455209336</v>
+        <v>666.906299819275</v>
       </c>
       <c r="N39" t="n">
-        <v>1143.171538468567</v>
+        <v>859.0132861944821</v>
       </c>
       <c r="O39" t="n">
-        <v>1304.469032976554</v>
+        <v>1302.407324436559</v>
       </c>
       <c r="P39" t="n">
-        <v>1421.357999499391</v>
+        <v>1745.801362678636</v>
       </c>
       <c r="Q39" t="n">
         <v>1791.491063604352</v>
@@ -7289,16 +7289,16 @@
         <v>1408.889613839289</v>
       </c>
       <c r="V39" t="n">
-        <v>1186.349612210357</v>
+        <v>1310.514319707733</v>
       </c>
       <c r="W39" t="n">
-        <v>956.2323663436434</v>
+        <v>1080.39707384102</v>
       </c>
       <c r="X39" t="n">
-        <v>766.9252886936551</v>
+        <v>891.089996191032</v>
       </c>
       <c r="Y39" t="n">
-        <v>694.6565963364935</v>
+        <v>711.7757792665393</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>927.6769004977427</v>
+        <v>769.1829295579209</v>
       </c>
       <c r="C40" t="n">
-        <v>757.4717825637319</v>
+        <v>769.1829295579209</v>
       </c>
       <c r="D40" t="n">
-        <v>601.8386694662466</v>
+        <v>769.1829295579209</v>
       </c>
       <c r="E40" t="n">
-        <v>446.2798573254491</v>
+        <v>613.6241174171234</v>
       </c>
       <c r="F40" t="n">
-        <v>288.9539225384221</v>
+        <v>456.2981826300963</v>
       </c>
       <c r="G40" t="n">
-        <v>288.9539225384221</v>
+        <v>288.953922538422</v>
       </c>
       <c r="H40" t="n">
         <v>141.5642655461412</v>
@@ -7332,16 +7332,16 @@
         <v>35.82982127208704</v>
       </c>
       <c r="J40" t="n">
-        <v>69.09848475894705</v>
+        <v>69.09848475894674</v>
       </c>
       <c r="K40" t="n">
-        <v>254.5315649273076</v>
+        <v>254.5315649273073</v>
       </c>
       <c r="L40" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272393997</v>
       </c>
       <c r="M40" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781576</v>
       </c>
       <c r="N40" t="n">
         <v>1196.939252046641</v>
@@ -7356,28 +7356,28 @@
         <v>1791.491063604352</v>
       </c>
       <c r="R40" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="S40" t="n">
-        <v>1604.530204619839</v>
+        <v>1521.53685324079</v>
       </c>
       <c r="T40" t="n">
-        <v>1372.698453607834</v>
+        <v>1289.705102228785</v>
       </c>
       <c r="U40" t="n">
-        <v>1372.698453607834</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="V40" t="n">
-        <v>1372.698453607834</v>
+        <v>992.2949907412776</v>
       </c>
       <c r="W40" t="n">
-        <v>1089.368051539012</v>
+        <v>992.2949907412776</v>
       </c>
       <c r="X40" t="n">
-        <v>927.6769004977427</v>
+        <v>992.2949907412776</v>
       </c>
       <c r="Y40" t="n">
-        <v>927.6769004977427</v>
+        <v>769.1829295579209</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>924.0025954902985</v>
+        <v>840.1398490498444</v>
       </c>
       <c r="C41" t="n">
-        <v>924.0025954902985</v>
+        <v>446.964347552775</v>
       </c>
       <c r="D41" t="n">
-        <v>924.0025954902985</v>
+        <v>446.964347552775</v>
       </c>
       <c r="E41" t="n">
-        <v>924.0025954902985</v>
+        <v>446.964347552775</v>
       </c>
       <c r="F41" t="n">
-        <v>507.1081570202763</v>
+        <v>446.964347552775</v>
       </c>
       <c r="G41" t="n">
-        <v>95.97363073958839</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H41" t="n">
-        <v>95.97363073958839</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I41" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J41" t="n">
-        <v>88.04454835761865</v>
+        <v>349.1973608293694</v>
       </c>
       <c r="K41" t="n">
-        <v>432.1028860490151</v>
+        <v>498.171783726867</v>
       </c>
       <c r="L41" t="n">
-        <v>594.0875937256437</v>
+        <v>660.1564914034956</v>
       </c>
       <c r="M41" t="n">
-        <v>794.911926466311</v>
+        <v>860.9808241441629</v>
       </c>
       <c r="N41" t="n">
-        <v>1001.984782312339</v>
+        <v>1068.053679990191</v>
       </c>
       <c r="O41" t="n">
-        <v>1188.849888382026</v>
+        <v>1254.918786059878</v>
       </c>
       <c r="P41" t="n">
-        <v>1632.243926624103</v>
+        <v>1391.978180255011</v>
       </c>
       <c r="Q41" t="n">
-        <v>1703.857538398287</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="R41" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S41" t="n">
-        <v>1695.496376233408</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="T41" t="n">
-        <v>1695.496376233408</v>
+        <v>1671.195782153852</v>
       </c>
       <c r="U41" t="n">
-        <v>1695.496376233408</v>
+        <v>1415.605310926956</v>
       </c>
       <c r="V41" t="n">
-        <v>1695.496376233408</v>
+        <v>1415.605310926956</v>
       </c>
       <c r="W41" t="n">
-        <v>1324.497341201695</v>
+        <v>1240.634594761241</v>
       </c>
       <c r="X41" t="n">
-        <v>1324.497341201695</v>
+        <v>1240.634594761241</v>
       </c>
       <c r="Y41" t="n">
-        <v>1324.497341201695</v>
+        <v>1240.634594761241</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>435.8147373282009</v>
+        <v>426.7970856565872</v>
       </c>
       <c r="C42" t="n">
-        <v>380.1819648931149</v>
+        <v>426.7970856565872</v>
       </c>
       <c r="D42" t="n">
-        <v>250.0929975145952</v>
+        <v>296.7081182780676</v>
       </c>
       <c r="E42" t="n">
-        <v>113.6465066254829</v>
+        <v>160.2616273889552</v>
       </c>
       <c r="F42" t="n">
-        <v>113.6465066254829</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G42" t="n">
-        <v>113.6465066254829</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H42" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I42" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J42" t="n">
-        <v>54.69695449549359</v>
+        <v>249.431949475221</v>
       </c>
       <c r="K42" t="n">
-        <v>498.0909927375706</v>
+        <v>332.4795213379896</v>
       </c>
       <c r="L42" t="n">
-        <v>639.8683535648356</v>
+        <v>474.2568821652546</v>
       </c>
       <c r="M42" t="n">
-        <v>817.8978107561363</v>
+        <v>652.2863393565553</v>
       </c>
       <c r="N42" t="n">
-        <v>1010.004797131343</v>
+        <v>844.3933257317625</v>
       </c>
       <c r="O42" t="n">
-        <v>1171.302291639331</v>
+        <v>1005.69082023975</v>
       </c>
       <c r="P42" t="n">
-        <v>1614.696329881408</v>
+        <v>1378.762417405294</v>
       </c>
       <c r="Q42" t="n">
-        <v>1791.491063604352</v>
+        <v>1748.895481510255</v>
       </c>
       <c r="R42" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="S42" t="n">
-        <v>1791.491063604352</v>
+        <v>1676.717469147192</v>
       </c>
       <c r="T42" t="n">
-        <v>1618.881362534994</v>
+        <v>1504.107768077834</v>
       </c>
       <c r="U42" t="n">
-        <v>1408.889613839289</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="V42" t="n">
-        <v>1186.349612210356</v>
+        <v>1071.576017753197</v>
       </c>
       <c r="W42" t="n">
-        <v>956.2323663436432</v>
+        <v>841.4587718864839</v>
       </c>
       <c r="X42" t="n">
-        <v>766.9252886936549</v>
+        <v>652.1516942364956</v>
       </c>
       <c r="Y42" t="n">
-        <v>587.6110717691622</v>
+        <v>472.8374773120028</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>841.897059323082</v>
+        <v>757.4717825637317</v>
       </c>
       <c r="C43" t="n">
-        <v>671.6919413890712</v>
+        <v>757.4717825637317</v>
       </c>
       <c r="D43" t="n">
-        <v>516.0588282915859</v>
+        <v>601.8386694662465</v>
       </c>
       <c r="E43" t="n">
-        <v>360.5000161507884</v>
+        <v>446.2798573254491</v>
       </c>
       <c r="F43" t="n">
-        <v>203.1740813637614</v>
+        <v>288.953922538422</v>
       </c>
       <c r="G43" t="n">
-        <v>35.82982127208703</v>
+        <v>288.953922538422</v>
       </c>
       <c r="H43" t="n">
-        <v>35.82982127208703</v>
+        <v>141.5642655461412</v>
       </c>
       <c r="I43" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J43" t="n">
         <v>69.09848475894705</v>
@@ -7575,10 +7575,10 @@
         <v>254.5315649273076</v>
       </c>
       <c r="L43" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272393997</v>
       </c>
       <c r="M43" t="n">
-        <v>877.2968956781579</v>
+        <v>877.2968956781576</v>
       </c>
       <c r="N43" t="n">
         <v>1196.939252046641</v>
@@ -7587,34 +7587,34 @@
         <v>1485.680193679921</v>
       </c>
       <c r="P43" t="n">
-        <v>1713.40208024157</v>
+        <v>1713.402080241571</v>
       </c>
       <c r="Q43" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="R43" t="n">
-        <v>1791.491063604352</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.491063604352</v>
+        <v>1521.53685324079</v>
       </c>
       <c r="T43" t="n">
-        <v>1791.491063604352</v>
+        <v>1289.705102228785</v>
       </c>
       <c r="U43" t="n">
-        <v>1506.1018969631</v>
+        <v>1004.315935587534</v>
       </c>
       <c r="V43" t="n">
-        <v>1506.1018969631</v>
+        <v>757.4717825637317</v>
       </c>
       <c r="W43" t="n">
-        <v>1222.771494894278</v>
+        <v>757.4717825637317</v>
       </c>
       <c r="X43" t="n">
-        <v>1027.105078014383</v>
+        <v>757.4717825637317</v>
       </c>
       <c r="Y43" t="n">
-        <v>1027.105078014383</v>
+        <v>757.4717825637317</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1456.573753173323</v>
+        <v>950.2795283652138</v>
       </c>
       <c r="C44" t="n">
-        <v>1456.573753173323</v>
+        <v>823.8544749388748</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.573753173323</v>
+        <v>438.4133461555425</v>
       </c>
       <c r="E44" t="n">
-        <v>1227.314043308666</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="F44" t="n">
-        <v>810.4196048386441</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="G44" t="n">
-        <v>399.2850785579561</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H44" t="n">
-        <v>95.97363073958839</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I44" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J44" t="n">
         <v>349.1973608293694</v>
       </c>
       <c r="K44" t="n">
-        <v>460.4337383187916</v>
+        <v>519.7364112550799</v>
       </c>
       <c r="L44" t="n">
-        <v>903.8277765608686</v>
+        <v>681.7211189317085</v>
       </c>
       <c r="M44" t="n">
-        <v>1104.652109301536</v>
+        <v>882.5454516723757</v>
       </c>
       <c r="N44" t="n">
-        <v>1311.724965147564</v>
+        <v>1089.618307518404</v>
       </c>
       <c r="O44" t="n">
-        <v>1498.590071217251</v>
+        <v>1276.483413588091</v>
       </c>
       <c r="P44" t="n">
-        <v>1635.649465412384</v>
+        <v>1719.877451830168</v>
       </c>
       <c r="Q44" t="n">
         <v>1791.491063604352</v>
@@ -7675,25 +7675,25 @@
         <v>1791.491063604352</v>
       </c>
       <c r="S44" t="n">
-        <v>1671.195782153852</v>
+        <v>1791.491063604352</v>
       </c>
       <c r="T44" t="n">
-        <v>1456.573753173323</v>
+        <v>1576.869034623823</v>
       </c>
       <c r="U44" t="n">
-        <v>1456.573753173323</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="V44" t="n">
-        <v>1456.573753173323</v>
+        <v>1321.278563396926</v>
       </c>
       <c r="W44" t="n">
-        <v>1456.573753173323</v>
+        <v>950.2795283652138</v>
       </c>
       <c r="X44" t="n">
-        <v>1456.573753173323</v>
+        <v>950.2795283652138</v>
       </c>
       <c r="Y44" t="n">
-        <v>1456.573753173323</v>
+        <v>950.2795283652138</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.0328915667455</v>
+        <v>321.0411428710415</v>
       </c>
       <c r="C45" t="n">
-        <v>380.3786611268378</v>
+        <v>170.3869124311337</v>
       </c>
       <c r="D45" t="n">
-        <v>380.3786611268378</v>
+        <v>170.3869124311337</v>
       </c>
       <c r="E45" t="n">
-        <v>243.9321702377255</v>
+        <v>125.6705731879924</v>
       </c>
       <c r="F45" t="n">
-        <v>243.9321702377255</v>
+        <v>125.6705731879924</v>
       </c>
       <c r="G45" t="n">
         <v>125.6705731879924</v>
       </c>
       <c r="H45" t="n">
-        <v>47.85388783459649</v>
+        <v>47.8538878345965</v>
       </c>
       <c r="I45" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J45" t="n">
-        <v>54.69695449549359</v>
+        <v>54.69695449549361</v>
       </c>
       <c r="K45" t="n">
-        <v>498.0909927375706</v>
+        <v>498.0909927375707</v>
       </c>
       <c r="L45" t="n">
-        <v>639.8683535648356</v>
+        <v>639.8683535648357</v>
       </c>
       <c r="M45" t="n">
-        <v>1024.220863405735</v>
+        <v>817.8978107561366</v>
       </c>
       <c r="N45" t="n">
-        <v>1467.614901647812</v>
+        <v>1010.004797131344</v>
       </c>
       <c r="O45" t="n">
-        <v>1628.912396155799</v>
+        <v>1171.302291639331</v>
       </c>
       <c r="P45" t="n">
-        <v>1745.801362678636</v>
+        <v>1421.357999499391</v>
       </c>
       <c r="Q45" t="n">
         <v>1791.491063604352</v>
@@ -7760,19 +7760,19 @@
         <v>1504.107768077834</v>
       </c>
       <c r="U45" t="n">
-        <v>1504.107768077834</v>
+        <v>1294.11601938213</v>
       </c>
       <c r="V45" t="n">
-        <v>1281.567766448901</v>
+        <v>1071.576017753197</v>
       </c>
       <c r="W45" t="n">
-        <v>1051.450520582188</v>
+        <v>841.4587718864839</v>
       </c>
       <c r="X45" t="n">
-        <v>862.1434429321996</v>
+        <v>652.1516942364956</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.8292260077069</v>
+        <v>472.8374773120028</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>770.3509657107156</v>
+        <v>373.3791992977722</v>
       </c>
       <c r="C46" t="n">
-        <v>600.1458477767048</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="D46" t="n">
-        <v>444.5127346792195</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="E46" t="n">
-        <v>288.953922538422</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="F46" t="n">
-        <v>288.953922538422</v>
+        <v>203.1740813637614</v>
       </c>
       <c r="G46" t="n">
-        <v>288.953922538422</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="H46" t="n">
-        <v>141.5642655461412</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="I46" t="n">
-        <v>35.82982127208703</v>
+        <v>35.82982127208704</v>
       </c>
       <c r="J46" t="n">
-        <v>69.09848475894704</v>
+        <v>69.09848475894705</v>
       </c>
       <c r="K46" t="n">
         <v>254.5315649273076</v>
       </c>
       <c r="L46" t="n">
-        <v>551.2290272393999</v>
+        <v>551.2290272394</v>
       </c>
       <c r="M46" t="n">
-        <v>877.2968956781579</v>
+        <v>877.296895678158</v>
       </c>
       <c r="N46" t="n">
         <v>1196.939252046641</v>
       </c>
       <c r="O46" t="n">
-        <v>1485.680193679922</v>
+        <v>1485.680193679921</v>
       </c>
       <c r="P46" t="n">
-        <v>1713.40208024157</v>
+        <v>1713.402080241571</v>
       </c>
       <c r="Q46" t="n">
         <v>1791.491063604352</v>
       </c>
       <c r="R46" t="n">
-        <v>1708.497712225302</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="S46" t="n">
-        <v>1521.53685324079</v>
+        <v>1708.497712225303</v>
       </c>
       <c r="T46" t="n">
-        <v>1521.53685324079</v>
+        <v>1476.665961213297</v>
       </c>
       <c r="U46" t="n">
-        <v>1236.147686599539</v>
+        <v>1191.276794572046</v>
       </c>
       <c r="V46" t="n">
-        <v>970.1683414203629</v>
+        <v>925.2974493928704</v>
       </c>
       <c r="W46" t="n">
-        <v>970.1683414203629</v>
+        <v>641.9670473240481</v>
       </c>
       <c r="X46" t="n">
-        <v>955.5589844020169</v>
+        <v>641.9670473240481</v>
       </c>
       <c r="Y46" t="n">
-        <v>955.5589844020169</v>
+        <v>558.5872179890735</v>
       </c>
     </row>
   </sheetData>
@@ -8692,10 +8692,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>85.07877415937745</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>284.2518490560086</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>280.8119108860281</v>
       </c>
       <c r="R11" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,10 +8771,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>281.8275923304451</v>
+        <v>363.9863296760691</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6633105200123</v>
+        <v>222.5045731743882</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O13" t="n">
-        <v>254.3449995307765</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
         <v>210.6102387699041</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>335.5127886390453</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>259.120133507465</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>309.4289333807513</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.57227599560474</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>13.9989026724944</v>
+        <v>47.8167372488349</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,16 +9005,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>363.9863296760691</v>
       </c>
       <c r="L15" t="n">
-        <v>304.6633105200122</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>157.5691182845018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>222.5045731743882</v>
       </c>
       <c r="R15" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
-        <v>210.610238769904</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>101.9350150692921</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>38.11923778593501</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>280.8119108860276</v>
       </c>
       <c r="R17" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>324.8534328295331</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L18" t="n">
-        <v>304.6633105200123</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>285.4824970469978</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>245.0199045468786</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>259.120133507465</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>35.79200633914908</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9485,7 +9485,7 @@
         <v>363.9863296760691</v>
       </c>
       <c r="L21" t="n">
-        <v>265.5304136734762</v>
+        <v>222.504573174388</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>272.0053813173805</v>
+        <v>322.6277842836455</v>
       </c>
       <c r="L23" t="n">
-        <v>402.9318349640583</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.26141289150689</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>386.7250172724702</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>372.5052908240799</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>403.6259896798576</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>316.1293569293287</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>363.6998904549283</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>55.82542768806707</v>
+        <v>419.5253181429948</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
@@ -9956,25 +9956,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>423.3432964280619</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>229.4464094289574</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>403.6259896798576</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>316.1293569293287</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10114,7 +10114,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>33.34637719748923</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>377.8001194155148</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>428.108919288801</v>
+        <v>419.5253181429953</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>423.3432964280619</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>386.7250172724703</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>372.5052908240799</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>70.54410614330243</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>316.1293569293287</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10360,19 +10360,19 @@
         <v>363.6998904549283</v>
       </c>
       <c r="N32" t="n">
-        <v>357.3882509545635</v>
+        <v>357.3882509545634</v>
       </c>
       <c r="O32" t="n">
-        <v>118.1672744923131</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>29.64856216295451</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,10 +10433,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>423.3432964280619</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>263.5324698682797</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>316.1293569293277</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>238.7082650465138</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>42.10364583951417</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>301.9099574543698</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>102.5176150018526</v>
+        <v>13.99890267249438</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>258.7703339825327</v>
       </c>
       <c r="L36" t="n">
-        <v>19.40241842832438</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>268.0450313644205</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>284.9460037718079</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>21.64251645194035</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>284.2518490560086</v>
       </c>
       <c r="M38" t="n">
-        <v>245.0199045468786</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>56.89005290749131</v>
+        <v>238.7082650465138</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>13.9989026724944</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>14.76763683102985</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7961744816208</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>284.9460037718078</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>329.8031027467073</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>27.98796440657267</v>
+        <v>27.98796440657266</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>52.47253646344808</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
@@ -10992,7 +10992,7 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
-        <v>268.03563827736</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>235.1736971737113</v>
+        <v>38.1192377859347</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>309.4289333807512</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>13.99890267249438</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>363.9863296760691</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>329.8031027467073</v>
+        <v>258.7703339825329</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.4293260578062</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>27.98796440657267</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>253.4605344048249</v>
+        <v>253.4605344048246</v>
       </c>
       <c r="M43" t="n">
         <v>278.4750710187352</v>
@@ -11299,10 +11299,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>59.90168983463465</v>
       </c>
       <c r="L44" t="n">
-        <v>284.2518490560085</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>309.4289333807512</v>
       </c>
       <c r="Q44" t="n">
-        <v>85.0787741593773</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>13.9989026724944</v>
+        <v>13.99890267249438</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>208.4071238884836</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>253.8253049160302</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>134.5118599365891</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>27.98796440657267</v>
+        <v>27.98796440657266</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699037</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
         <v>101.9350150692923</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23269,16 +23269,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>235.7987895678628</v>
       </c>
       <c r="I11" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.245989730468182</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>149.9717943827706</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>37.69048478998057</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.6770998313136</v>
+        <v>70.72484309226749</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>199.2331942059149</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5352749748386</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>254.6121032668779</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -23515,7 +23515,7 @@
         <v>300.2783333401841</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.347495841138745</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.4758086907236</v>
@@ -23557,7 +23557,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>117.59943212299</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>61.61187167441899</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.8918312087472</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>22.48762663632314</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>122.9603233212622</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23721,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>43.53118615478905</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>407.0231810178811</v>
       </c>
       <c r="H17" t="n">
-        <v>13.66730876757333</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I17" t="n">
-        <v>59.54237137282634</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T17" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>169.4263560441229</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>37.95974202419856</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23901,10 +23901,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>100.7386151767963</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6708174907576</v>
+        <v>11.27540477763642</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S19" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>71.38790723810604</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>407.0231810178811</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>119.0923286359944</v>
       </c>
       <c r="T20" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>22.18409313021112</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -24050,16 +24050,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>130.6678714098622</v>
+        <v>13.77433162964934</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
         <v>117.7848734220132</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24141,13 +24141,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.16341786525869</v>
+        <v>23.15720371783372</v>
       </c>
       <c r="S22" t="n">
         <v>185.0912503946672</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.5134335018853</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.2545559717055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>300.2783333401841</v>
       </c>
       <c r="I23" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>14.15213147820276</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24271,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>40.06362688866022</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>75.6429237026138</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I25" t="n">
         <v>104.6770998313136</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T25" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>236.4136739769889</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>4.148882311412137</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>342.580894026661</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I26" t="n">
-        <v>59.54237137282634</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>141.0106577918998</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>145.915760422358</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>260.8646838136339</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24691,16 +24691,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>407.0231810178811</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>32.70688454193828</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I29" t="n">
-        <v>59.54237137282634</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>212.4758086907236</v>
@@ -24739,10 +24739,10 @@
         <v>253.0345665146277</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>283.7641227809127</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S31" t="n">
-        <v>61.94995657404763</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>214.2263201021605</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>411.2610965764283</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H32" t="n">
         <v>300.2783333401841</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>253.0345665146277</v>
       </c>
       <c r="V32" t="n">
-        <v>96.5140480046617</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.23913988647472</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.16341786525869</v>
+        <v>82.16341786525868</v>
       </c>
       <c r="S34" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>16.02239323895375</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>205.3734612063522</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.4758086907236</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>292.1493329588617</v>
       </c>
     </row>
     <row r="36">
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>69.37508364065026</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>113.625858512588</v>
       </c>
       <c r="T36" t="n">
-        <v>170.8836040586646</v>
+        <v>82.49490542602021</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>86.02468393488084</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>157.2647895662522</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>407.0231810178811</v>
+        <v>340.7014856733857</v>
       </c>
       <c r="H38" t="n">
-        <v>300.2783333401841</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>58.53097486830254</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>119.0923286359944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0345665146277</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25478,19 +25478,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>117.7848734220132</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>11.90382589688436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>122.9230604224031</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>105.9750693216578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,10 +25551,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5352749748386</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>251.4188163295904</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>71.66527946399043</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25639,7 +25639,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>300.2783333401841</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.05758813876017</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.4758086907236</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>194.0680356773381</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>104.6983833576903</v>
       </c>
       <c r="C42" t="n">
-        <v>94.07124342477357</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>117.7848734220132</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>77.03851849986194</v>
       </c>
       <c r="I42" t="n">
         <v>11.90382589688436</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>113.625858512588</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.6708174907576</v>
       </c>
       <c r="H43" t="n">
-        <v>145.915760422358</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.6770998313136</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.16341786525869</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>185.0912503946672</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>18.94384023382</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>38.02976628375092</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,25 +25867,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>264.0829435900231</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>171.5905768686107</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>407.0231810178811</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>300.2783333401841</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>59.54237137282632</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>119.0923286359944</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0345665146277</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25952,13 +25952,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>90.81285012951128</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7058923427774744</v>
+        <v>117.7848734220132</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>207.8918312087472</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6708174907576</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>145.915760422358</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.6770998313136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>185.0912503946672</v>
       </c>
       <c r="T46" t="n">
-        <v>229.5134335018853</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>217.2762555466842</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>138.3349095298982</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>455740.0358419562</v>
+        <v>455740.0358419561</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>532052.8099563093</v>
+        <v>532052.8099563092</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>532052.8099563093</v>
+        <v>532052.8099563092</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>532052.8099563093</v>
+        <v>532052.8099563094</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>455740.0358419562</v>
+        <v>455740.035841956</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>455740.035841956</v>
+        <v>455740.0358419562</v>
       </c>
     </row>
   </sheetData>
@@ -26319,31 +26319,31 @@
         <v>575677.5082070945</v>
       </c>
       <c r="D2" t="n">
-        <v>575677.5082070945</v>
+        <v>575677.5082070946</v>
       </c>
       <c r="E2" t="n">
         <v>341184.2331526831</v>
       </c>
       <c r="F2" t="n">
-        <v>341184.2331526832</v>
+        <v>341184.233152683</v>
       </c>
       <c r="G2" t="n">
         <v>341184.2331526831</v>
       </c>
       <c r="H2" t="n">
-        <v>341184.2331526833</v>
+        <v>341184.233152683</v>
       </c>
       <c r="I2" t="n">
-        <v>386136.1861895305</v>
+        <v>386136.1861895302</v>
       </c>
       <c r="J2" t="n">
         <v>386136.1861895302</v>
       </c>
       <c r="K2" t="n">
-        <v>386136.1861895305</v>
+        <v>386136.1861895304</v>
       </c>
       <c r="L2" t="n">
-        <v>386136.1861895302</v>
+        <v>386136.1861895304</v>
       </c>
       <c r="M2" t="n">
         <v>341184.2331526831</v>
@@ -26355,7 +26355,7 @@
         <v>341184.2331526831</v>
       </c>
       <c r="P2" t="n">
-        <v>341184.2331526832</v>
+        <v>341184.233152683</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>82036.15754538511</v>
+        <v>82036.15754538514</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>385057.4014899192</v>
       </c>
       <c r="E4" t="n">
+        <v>50972.13252069108</v>
+      </c>
+      <c r="F4" t="n">
         <v>50972.13252069106</v>
       </c>
-      <c r="F4" t="n">
-        <v>50972.13252069108</v>
-      </c>
       <c r="G4" t="n">
-        <v>50972.13252069108</v>
+        <v>50972.13252069106</v>
       </c>
       <c r="H4" t="n">
-        <v>50972.13252069108</v>
+        <v>50972.13252069106</v>
       </c>
       <c r="I4" t="n">
-        <v>73990.45864084995</v>
+        <v>73990.45864084992</v>
       </c>
       <c r="J4" t="n">
-        <v>73990.45864084993</v>
+        <v>73990.4586408499</v>
       </c>
       <c r="K4" t="n">
-        <v>73990.45864084993</v>
+        <v>73990.45864084992</v>
       </c>
       <c r="L4" t="n">
-        <v>73990.45864084995</v>
+        <v>73990.45864084989</v>
       </c>
       <c r="M4" t="n">
-        <v>50972.13252069108</v>
+        <v>50972.13252069107</v>
       </c>
       <c r="N4" t="n">
-        <v>50972.13252069108</v>
+        <v>50972.13252069106</v>
       </c>
       <c r="O4" t="n">
-        <v>50972.13252069106</v>
+        <v>50972.13252069107</v>
       </c>
       <c r="P4" t="n">
         <v>50972.13252069106</v>
@@ -26493,7 +26493,7 @@
         <v>45335.00157343475</v>
       </c>
       <c r="J5" t="n">
-        <v>45335.00157343475</v>
+        <v>45335.00157343474</v>
       </c>
       <c r="K5" t="n">
         <v>45335.00157343475</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156992.5067171754</v>
+        <v>156988.177149389</v>
       </c>
       <c r="C6" t="n">
-        <v>156992.5067171753</v>
+        <v>156988.1771493889</v>
       </c>
       <c r="D6" t="n">
-        <v>156992.5067171753</v>
+        <v>156988.177149389</v>
       </c>
       <c r="E6" t="n">
-        <v>-282913.2729096604</v>
+        <v>-283650.3939619918</v>
       </c>
       <c r="F6" t="n">
-        <v>252092.8422017668</v>
+        <v>251355.7211494352</v>
       </c>
       <c r="G6" t="n">
-        <v>252092.8422017667</v>
+        <v>251355.7211494352</v>
       </c>
       <c r="H6" t="n">
-        <v>252092.8422017669</v>
+        <v>251355.7211494352</v>
       </c>
       <c r="I6" t="n">
-        <v>235251.2254425913</v>
+        <v>234654.5792434998</v>
       </c>
       <c r="J6" t="n">
-        <v>266810.7259752456</v>
+        <v>266214.0797761542</v>
       </c>
       <c r="K6" t="n">
-        <v>266810.7259752458</v>
+        <v>266214.0797761545</v>
       </c>
       <c r="L6" t="n">
-        <v>266810.7259752456</v>
+        <v>266214.0797761545</v>
       </c>
       <c r="M6" t="n">
-        <v>170056.6846563815</v>
+        <v>169319.5636040502</v>
       </c>
       <c r="N6" t="n">
-        <v>252092.8422017667</v>
+        <v>251355.7211494354</v>
       </c>
       <c r="O6" t="n">
-        <v>252092.8422017667</v>
+        <v>251355.7211494352</v>
       </c>
       <c r="P6" t="n">
-        <v>252092.8422017668</v>
+        <v>251355.7211494352</v>
       </c>
     </row>
   </sheetData>
@@ -26813,7 +26813,7 @@
         <v>566.5527518091377</v>
       </c>
       <c r="J4" t="n">
-        <v>566.5527518091377</v>
+        <v>566.5527518091376</v>
       </c>
       <c r="K4" t="n">
         <v>566.5527518091377</v>
@@ -26828,10 +26828,10 @@
         <v>447.872765901088</v>
       </c>
       <c r="O4" t="n">
-        <v>447.8727659010879</v>
+        <v>447.872765901088</v>
       </c>
       <c r="P4" t="n">
-        <v>447.8727659010879</v>
+        <v>447.872765901088</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>329.1927799930382</v>
+        <v>329.1927799930384</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H14" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I14" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J14" t="n">
         <v>170.4219865135902</v>
@@ -32013,13 +32013,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O14" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P14" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R14" t="n">
         <v>126.1316969066915</v>
@@ -32028,10 +32028,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T14" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32095,19 +32095,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P15" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q15" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R15" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S15" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T15" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U15" t="n">
         <v>0.07068067939743281</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H16" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I16" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J16" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K16" t="n">
         <v>104.6444838973926</v>
@@ -32171,13 +32171,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O16" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P16" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R16" t="n">
         <v>40.49856160849011</v>
@@ -32186,7 +32186,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T16" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U16" t="n">
         <v>0.0491288656795271</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H17" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I17" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J17" t="n">
         <v>170.4219865135902</v>
@@ -32250,13 +32250,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O17" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P17" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R17" t="n">
         <v>126.1316969066915</v>
@@ -32265,10 +32265,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T17" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32332,19 +32332,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P18" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q18" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R18" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S18" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T18" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U18" t="n">
         <v>0.07068067939743281</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H19" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I19" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J19" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K19" t="n">
         <v>104.6444838973926</v>
@@ -32408,13 +32408,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O19" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P19" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R19" t="n">
         <v>40.49856160849011</v>
@@ -32423,7 +32423,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T19" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U19" t="n">
         <v>0.0491288656795271</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H20" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I20" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J20" t="n">
         <v>170.4219865135902</v>
@@ -32487,13 +32487,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O20" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P20" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R20" t="n">
         <v>126.1316969066915</v>
@@ -32502,10 +32502,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T20" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32569,19 +32569,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P21" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q21" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R21" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S21" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T21" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U21" t="n">
         <v>0.07068067939743281</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H22" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I22" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J22" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K22" t="n">
         <v>104.6444838973926</v>
@@ -32645,13 +32645,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O22" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P22" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R22" t="n">
         <v>40.49856160849011</v>
@@ -32660,7 +32660,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T22" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U22" t="n">
         <v>0.0491288656795271</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H23" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I23" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J23" t="n">
         <v>170.4219865135902</v>
@@ -32724,13 +32724,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O23" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P23" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R23" t="n">
         <v>126.1316969066915</v>
@@ -32739,10 +32739,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T23" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32806,19 +32806,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P24" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q24" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R24" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S24" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T24" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U24" t="n">
         <v>0.07068067939743281</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H25" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I25" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J25" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K25" t="n">
         <v>104.6444838973926</v>
@@ -32882,13 +32882,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O25" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P25" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R25" t="n">
         <v>40.49856160849011</v>
@@ -32897,7 +32897,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T25" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U25" t="n">
         <v>0.0491288656795271</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H26" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I26" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J26" t="n">
         <v>170.4219865135902</v>
@@ -32961,13 +32961,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O26" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P26" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R26" t="n">
         <v>126.1316969066915</v>
@@ -32976,10 +32976,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T26" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33043,19 +33043,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P27" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q27" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R27" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S27" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T27" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U27" t="n">
         <v>0.07068067939743281</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H28" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I28" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J28" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K28" t="n">
         <v>104.6444838973926</v>
@@ -33119,13 +33119,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O28" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P28" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R28" t="n">
         <v>40.49856160849011</v>
@@ -33134,7 +33134,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T28" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U28" t="n">
         <v>0.0491288656795271</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H29" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I29" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J29" t="n">
         <v>170.4219865135902</v>
@@ -33198,13 +33198,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O29" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P29" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R29" t="n">
         <v>126.1316969066915</v>
@@ -33213,10 +33213,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T29" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33280,19 +33280,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P30" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q30" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R30" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S30" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T30" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U30" t="n">
         <v>0.07068067939743281</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H31" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I31" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J31" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K31" t="n">
         <v>104.6444838973926</v>
@@ -33356,13 +33356,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O31" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P31" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R31" t="n">
         <v>40.49856160849011</v>
@@ -33371,7 +33371,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T31" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U31" t="n">
         <v>0.0491288656795271</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H32" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I32" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J32" t="n">
         <v>170.4219865135902</v>
@@ -33435,13 +33435,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O32" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P32" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R32" t="n">
         <v>126.1316969066915</v>
@@ -33450,10 +33450,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T32" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33517,19 +33517,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P33" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q33" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R33" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S33" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T33" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U33" t="n">
         <v>0.07068067939743281</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H34" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I34" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J34" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K34" t="n">
         <v>104.6444838973926</v>
@@ -33593,13 +33593,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O34" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P34" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R34" t="n">
         <v>40.49856160849011</v>
@@ -33608,7 +33608,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T34" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U34" t="n">
         <v>0.0491288656795271</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H35" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I35" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J35" t="n">
         <v>170.4219865135902</v>
@@ -33672,13 +33672,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O35" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P35" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R35" t="n">
         <v>126.1316969066915</v>
@@ -33687,10 +33687,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T35" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33754,19 +33754,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P36" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q36" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R36" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S36" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T36" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U36" t="n">
         <v>0.07068067939743281</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H37" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I37" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J37" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K37" t="n">
         <v>104.6444838973926</v>
@@ -33830,13 +33830,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O37" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P37" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R37" t="n">
         <v>40.49856160849011</v>
@@ -33845,7 +33845,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T37" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U37" t="n">
         <v>0.0491288656795271</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H38" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I38" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J38" t="n">
         <v>170.4219865135902</v>
@@ -33909,13 +33909,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O38" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P38" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R38" t="n">
         <v>126.1316969066915</v>
@@ -33924,10 +33924,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T38" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33991,19 +33991,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P39" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q39" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R39" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S39" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T39" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U39" t="n">
         <v>0.07068067939743281</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H40" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I40" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J40" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K40" t="n">
         <v>104.6444838973926</v>
@@ -34067,13 +34067,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O40" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P40" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R40" t="n">
         <v>40.49856160849011</v>
@@ -34082,7 +34082,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T40" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U40" t="n">
         <v>0.0491288656795271</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H41" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I41" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J41" t="n">
         <v>170.4219865135902</v>
@@ -34146,13 +34146,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O41" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P41" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R41" t="n">
         <v>126.1316969066915</v>
@@ -34161,10 +34161,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T41" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34228,19 +34228,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P42" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q42" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R42" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S42" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T42" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U42" t="n">
         <v>0.07068067939743281</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H43" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I43" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J43" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K43" t="n">
         <v>104.6444838973926</v>
@@ -34304,13 +34304,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O43" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P43" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R43" t="n">
         <v>40.49856160849011</v>
@@ -34319,7 +34319,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T43" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U43" t="n">
         <v>0.0491288656795271</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.007946938995743</v>
+        <v>2.007946938995744</v>
       </c>
       <c r="H44" t="n">
         <v>20.56388658899017</v>
       </c>
       <c r="I44" t="n">
-        <v>77.41137436563348</v>
+        <v>77.41137436563349</v>
       </c>
       <c r="J44" t="n">
         <v>170.4219865135902</v>
@@ -34383,13 +34383,13 @@
         <v>358.2829921923583</v>
       </c>
       <c r="O44" t="n">
-        <v>338.3164698177193</v>
+        <v>338.3164698177194</v>
       </c>
       <c r="P44" t="n">
         <v>288.7452797612619</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.8356800084767</v>
+        <v>216.8356800084768</v>
       </c>
       <c r="R44" t="n">
         <v>126.1316969066915</v>
@@ -34398,10 +34398,10 @@
         <v>45.75609087236555</v>
       </c>
       <c r="T44" t="n">
-        <v>8.789787725453872</v>
+        <v>8.789787725453873</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1606357551196594</v>
+        <v>0.1606357551196595</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34465,19 +34465,19 @@
         <v>255.6143210181691</v>
       </c>
       <c r="P45" t="n">
-        <v>205.1530279736952</v>
+        <v>205.1530279736953</v>
       </c>
       <c r="Q45" t="n">
-        <v>137.1393662121922</v>
+        <v>137.1393662121923</v>
       </c>
       <c r="R45" t="n">
-        <v>66.70371317000391</v>
+        <v>66.70371317000392</v>
       </c>
       <c r="S45" t="n">
         <v>19.95551181654184</v>
       </c>
       <c r="T45" t="n">
-        <v>4.330369624416046</v>
+        <v>4.330369624416047</v>
       </c>
       <c r="U45" t="n">
         <v>0.07068067939743281</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.900695870791329</v>
+        <v>0.9006958707913291</v>
       </c>
       <c r="H46" t="n">
-        <v>8.008005105762912</v>
+        <v>8.008005105762914</v>
       </c>
       <c r="I46" t="n">
         <v>27.08638127797925</v>
       </c>
       <c r="J46" t="n">
-        <v>63.67919806494696</v>
+        <v>63.67919806494697</v>
       </c>
       <c r="K46" t="n">
         <v>104.6444838973926</v>
@@ -34541,13 +34541,13 @@
         <v>137.8310326639132</v>
       </c>
       <c r="O46" t="n">
-        <v>127.3092672642144</v>
+        <v>127.3092672642145</v>
       </c>
       <c r="P46" t="n">
         <v>108.9350715000712</v>
       </c>
       <c r="Q46" t="n">
-        <v>75.42099696235393</v>
+        <v>75.42099696235394</v>
       </c>
       <c r="R46" t="n">
         <v>40.49856160849011</v>
@@ -34556,7 +34556,7 @@
         <v>15.69667258460888</v>
       </c>
       <c r="T46" t="n">
-        <v>3.84842781156295</v>
+        <v>3.848427811562951</v>
       </c>
       <c r="U46" t="n">
         <v>0.0491288656795271</v>
@@ -35412,10 +35412,10 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K11" t="n">
-        <v>197.4387514214201</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L11" t="n">
-        <v>447.872765901088</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M11" t="n">
         <v>202.8528613542094</v>
@@ -35430,10 +35430,10 @@
         <v>138.4438325203367</v>
       </c>
       <c r="Q11" t="n">
-        <v>72.33698159008458</v>
+        <v>353.1488924761127</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>88.51871232935821</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K12" t="n">
-        <v>365.7140285554639</v>
+        <v>447.872765901088</v>
       </c>
       <c r="L12" t="n">
-        <v>447.872765901088</v>
+        <v>365.714028555464</v>
       </c>
       <c r="M12" t="n">
         <v>179.8277345366674</v>
@@ -35582,7 +35582,7 @@
         <v>322.871067038872</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6575168012932</v>
+        <v>291.6575168012933</v>
       </c>
       <c r="P13" t="n">
         <v>230.0221076380294</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K14" t="n">
-        <v>112.3599772620427</v>
+        <v>447.872765901088</v>
       </c>
       <c r="L14" t="n">
         <v>163.6209168450794</v>
@@ -35661,16 +35661,16 @@
         <v>209.1645008545742</v>
       </c>
       <c r="O14" t="n">
-        <v>447.872765901088</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P14" t="n">
-        <v>447.872765901088</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q14" t="n">
-        <v>136.9092575856893</v>
+        <v>72.3369815900846</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>33.81783457634052</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K15" t="n">
         <v>447.872765901088</v>
       </c>
       <c r="L15" t="n">
-        <v>447.872765901088</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M15" t="n">
-        <v>337.3968528211693</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N15" t="n">
         <v>194.0474609850578</v>
@@ -35746,10 +35746,10 @@
         <v>118.0696631543806</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.15121305627825</v>
+        <v>268.6557862306665</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.60471059278789</v>
+        <v>33.6047105927879</v>
       </c>
       <c r="K16" t="n">
         <v>187.3061415842025</v>
@@ -35822,10 +35822,10 @@
         <v>291.6575168012933</v>
       </c>
       <c r="P16" t="n">
-        <v>230.0221076380292</v>
+        <v>230.0221076380294</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250622</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>163.6209168450794</v>
       </c>
       <c r="M17" t="n">
-        <v>240.9720991401444</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N17" t="n">
         <v>209.1645008545742</v>
       </c>
       <c r="O17" t="n">
-        <v>188.7526323936229</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P17" t="n">
         <v>138.4438325203367</v>
       </c>
       <c r="Q17" t="n">
-        <v>403.5483670195359</v>
+        <v>353.1488924761122</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K18" t="n">
-        <v>408.7398690545519</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L18" t="n">
-        <v>447.872765901088</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M18" t="n">
-        <v>179.8277345366674</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N18" t="n">
         <v>194.0474609850578</v>
@@ -35983,10 +35983,10 @@
         <v>118.0696631543806</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.60471059278789</v>
+        <v>33.6047105927879</v>
       </c>
       <c r="K19" t="n">
         <v>187.3061415842025</v>
@@ -36062,7 +36062,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250642</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K20" t="n">
-        <v>397.8424743090404</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L20" t="n">
         <v>163.6209168450794</v>
       </c>
       <c r="M20" t="n">
-        <v>202.8528613542094</v>
+        <v>447.872765901088</v>
       </c>
       <c r="N20" t="n">
         <v>209.1645008545742</v>
       </c>
       <c r="O20" t="n">
-        <v>447.872765901088</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P20" t="n">
         <v>138.4438325203367</v>
       </c>
       <c r="Q20" t="n">
-        <v>72.33698159008458</v>
+        <v>108.1289879292337</v>
       </c>
       <c r="R20" t="n">
-        <v>88.51871232935821</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>447.872765901088</v>
       </c>
       <c r="L21" t="n">
-        <v>408.739869054552</v>
+        <v>365.7140285554638</v>
       </c>
       <c r="M21" t="n">
-        <v>179.8277345366674</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N21" t="n">
         <v>194.0474609850578</v>
@@ -36220,10 +36220,10 @@
         <v>118.0696631543806</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.15121305627825</v>
+        <v>46.15121305627828</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.60471059278789</v>
+        <v>33.6047105927879</v>
       </c>
       <c r="K22" t="n">
         <v>187.3061415842025</v>
@@ -36299,7 +36299,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250642</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K23" t="n">
-        <v>384.3653585794232</v>
+        <v>434.9877615456882</v>
       </c>
       <c r="L23" t="n">
-        <v>566.5527518091377</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M23" t="n">
         <v>202.8528613542094</v>
@@ -36372,16 +36372,16 @@
         <v>209.1645008545742</v>
       </c>
       <c r="O23" t="n">
-        <v>188.7526323936229</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P23" t="n">
         <v>566.5527518091377</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.33698159008458</v>
+        <v>72.3369815900846</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K24" t="n">
-        <v>83.88643622501881</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L24" t="n">
-        <v>233.4708682725827</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M24" t="n">
-        <v>566.5527518091377</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N24" t="n">
-        <v>566.5527518091377</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O24" t="n">
-        <v>566.5527518091377</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P24" t="n">
-        <v>118.0696631543806</v>
+        <v>434.1990200837093</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R24" t="n">
-        <v>43.02584049908781</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.60471059278789</v>
+        <v>33.6047105927879</v>
       </c>
       <c r="K25" t="n">
         <v>187.3061415842025</v>
@@ -36536,7 +36536,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250642</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,22 +36603,22 @@
         <v>163.6209168450794</v>
       </c>
       <c r="M26" t="n">
-        <v>566.5527518091377</v>
+        <v>202.8528613542094</v>
       </c>
       <c r="N26" t="n">
         <v>209.1645008545742</v>
       </c>
       <c r="O26" t="n">
-        <v>188.7526323936229</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P26" t="n">
-        <v>194.2692602084038</v>
+        <v>557.9691506633316</v>
       </c>
       <c r="Q26" t="n">
         <v>403.5483670195359</v>
       </c>
       <c r="R26" t="n">
-        <v>88.51871232935821</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K27" t="n">
-        <v>83.88643622501881</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L27" t="n">
-        <v>566.5527518091377</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M27" t="n">
-        <v>179.8277345366674</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N27" t="n">
-        <v>423.4938704140152</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O27" t="n">
-        <v>566.5527518091377</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P27" t="n">
-        <v>118.0696631543806</v>
+        <v>434.1990200837093</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R27" t="n">
-        <v>43.02584049908781</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.60471059278789</v>
+        <v>33.6047105927879</v>
       </c>
       <c r="K28" t="n">
         <v>187.3061415842025</v>
@@ -36773,7 +36773,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250642</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K29" t="n">
-        <v>145.7063544595319</v>
+        <v>112.3599772620427</v>
       </c>
       <c r="L29" t="n">
         <v>163.6209168450794</v>
@@ -36846,16 +36846,16 @@
         <v>209.1645008545742</v>
       </c>
       <c r="O29" t="n">
-        <v>566.5527518091377</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P29" t="n">
-        <v>566.5527518091377</v>
+        <v>557.969150663332</v>
       </c>
       <c r="Q29" t="n">
-        <v>72.33698159008458</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K30" t="n">
-        <v>83.88643622501881</v>
+        <v>496.4522059646415</v>
       </c>
       <c r="L30" t="n">
-        <v>566.5527518091377</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M30" t="n">
-        <v>566.5527518091377</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N30" t="n">
-        <v>566.5527518091377</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O30" t="n">
-        <v>233.4708682725826</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P30" t="n">
-        <v>118.0696631543806</v>
+        <v>434.1990200837093</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R30" t="n">
-        <v>43.02584049908781</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.60471059278789</v>
+        <v>33.6047105927879</v>
       </c>
       <c r="K31" t="n">
         <v>187.3061415842025</v>
@@ -37010,7 +37010,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250642</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,16 +37083,16 @@
         <v>566.5527518091377</v>
       </c>
       <c r="O32" t="n">
-        <v>306.919906885936</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P32" t="n">
-        <v>138.4438325203367</v>
+        <v>168.0923946832912</v>
       </c>
       <c r="Q32" t="n">
-        <v>72.33698159008458</v>
+        <v>72.3369815900846</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>496.4522059646415</v>
       </c>
       <c r="L33" t="n">
-        <v>566.5527518091377</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M33" t="n">
-        <v>443.3602044049472</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N33" t="n">
         <v>194.0474609850578</v>
@@ -37165,13 +37165,13 @@
         <v>162.9267621292802</v>
       </c>
       <c r="P33" t="n">
-        <v>118.0696631543806</v>
+        <v>434.1990200837084</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.60471059278789</v>
+        <v>33.6047105927879</v>
       </c>
       <c r="K34" t="n">
         <v>187.3061415842025</v>
@@ -37247,7 +37247,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250642</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>316.5328682396791</v>
+        <v>52.74214857124406</v>
       </c>
       <c r="K35" t="n">
         <v>112.3599772620427</v>
@@ -37317,19 +37317,19 @@
         <v>202.8528613542094</v>
       </c>
       <c r="N35" t="n">
-        <v>447.872765901088</v>
+        <v>209.1645008545742</v>
       </c>
       <c r="O35" t="n">
-        <v>230.8562782331371</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P35" t="n">
-        <v>138.4438325203367</v>
+        <v>440.3537899747066</v>
       </c>
       <c r="Q35" t="n">
-        <v>72.33698159008458</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R35" t="n">
-        <v>88.51871232935821</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K36" t="n">
-        <v>83.88643622501881</v>
+        <v>342.6567702075516</v>
       </c>
       <c r="L36" t="n">
-        <v>162.6118738094002</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M36" t="n">
-        <v>447.872765901088</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N36" t="n">
-        <v>447.872765901088</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O36" t="n">
-        <v>447.872765901088</v>
+        <v>162.9267621292802</v>
       </c>
       <c r="P36" t="n">
         <v>118.0696631543806</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.60471059278789</v>
+        <v>33.6047105927879</v>
       </c>
       <c r="K37" t="n">
         <v>187.3061415842025</v>
@@ -37484,7 +37484,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250642</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>52.74214857124406</v>
+        <v>74.38466502318441</v>
       </c>
       <c r="K38" t="n">
         <v>112.3599772620427</v>
       </c>
       <c r="L38" t="n">
-        <v>163.6209168450794</v>
+        <v>447.872765901088</v>
       </c>
       <c r="M38" t="n">
+        <v>202.8528613542094</v>
+      </c>
+      <c r="N38" t="n">
         <v>447.872765901088</v>
       </c>
-      <c r="N38" t="n">
-        <v>266.0545537620655</v>
-      </c>
       <c r="O38" t="n">
-        <v>188.7526323936229</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P38" t="n">
         <v>138.4438325203367</v>
       </c>
       <c r="Q38" t="n">
-        <v>403.5483670195359</v>
+        <v>72.3369815900846</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>88.51871232935822</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>215.7597254577111</v>
       </c>
       <c r="K39" t="n">
-        <v>83.88643622501881</v>
+        <v>98.65407305604869</v>
       </c>
       <c r="L39" t="n">
-        <v>445.0056298626966</v>
+        <v>143.2094553810758</v>
       </c>
       <c r="M39" t="n">
-        <v>179.8277345366674</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N39" t="n">
         <v>194.0474609850578</v>
       </c>
       <c r="O39" t="n">
-        <v>162.9267621292802</v>
+        <v>447.872765901088</v>
       </c>
       <c r="P39" t="n">
-        <v>118.0696631543806</v>
+        <v>447.872765901088</v>
       </c>
       <c r="Q39" t="n">
-        <v>373.8717819242029</v>
+        <v>46.15121305627828</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.60471059278789</v>
+        <v>33.60471059278758</v>
       </c>
       <c r="K40" t="n">
         <v>187.3061415842025</v>
@@ -37712,7 +37712,7 @@
         <v>329.3614832714727</v>
       </c>
       <c r="N40" t="n">
-        <v>322.8710670388717</v>
+        <v>322.871067038872</v>
       </c>
       <c r="O40" t="n">
         <v>291.6575168012933</v>
@@ -37721,7 +37721,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250642</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.74214857124406</v>
+        <v>316.5328682396791</v>
       </c>
       <c r="K41" t="n">
-        <v>347.533674435754</v>
+        <v>150.4792150479774</v>
       </c>
       <c r="L41" t="n">
         <v>163.6209168450794</v>
@@ -37794,16 +37794,16 @@
         <v>209.1645008545742</v>
       </c>
       <c r="O41" t="n">
-        <v>188.7526323936229</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P41" t="n">
-        <v>447.8727659010879</v>
+        <v>138.4438325203367</v>
       </c>
       <c r="Q41" t="n">
-        <v>72.33698159008458</v>
+        <v>403.5483670195359</v>
       </c>
       <c r="R41" t="n">
-        <v>88.51871232935821</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>19.05771032667329</v>
+        <v>215.7597254577111</v>
       </c>
       <c r="K42" t="n">
-        <v>447.8727659010879</v>
+        <v>83.88643622501884</v>
       </c>
       <c r="L42" t="n">
         <v>143.2094553810758</v>
       </c>
       <c r="M42" t="n">
-        <v>179.8277345366674</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N42" t="n">
         <v>194.0474609850578</v>
@@ -37876,13 +37876,13 @@
         <v>162.9267621292802</v>
       </c>
       <c r="P42" t="n">
-        <v>447.8727659010879</v>
+        <v>376.8399971369134</v>
       </c>
       <c r="Q42" t="n">
-        <v>178.5805391140845</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>43.02584049908782</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.60471059278789</v>
+        <v>33.6047105927879</v>
       </c>
       <c r="K43" t="n">
         <v>187.3061415842025</v>
       </c>
       <c r="L43" t="n">
-        <v>299.6944063758509</v>
+        <v>299.6944063758506</v>
       </c>
       <c r="M43" t="n">
         <v>329.3614832714727</v>
@@ -37958,7 +37958,7 @@
         <v>230.0221076380294</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250642</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>316.5328682396791</v>
       </c>
       <c r="K44" t="n">
-        <v>112.3599772620427</v>
+        <v>172.2616670966773</v>
       </c>
       <c r="L44" t="n">
-        <v>447.8727659010879</v>
+        <v>163.6209168450794</v>
       </c>
       <c r="M44" t="n">
         <v>202.8528613542094</v>
@@ -38031,13 +38031,13 @@
         <v>209.1645008545742</v>
       </c>
       <c r="O44" t="n">
-        <v>188.7526323936229</v>
+        <v>188.752632393623</v>
       </c>
       <c r="P44" t="n">
-        <v>138.4438325203367</v>
+        <v>447.872765901088</v>
       </c>
       <c r="Q44" t="n">
-        <v>157.4157557494619</v>
+        <v>72.3369815900846</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>19.05771032667329</v>
+        <v>19.0577103266733</v>
       </c>
       <c r="K45" t="n">
-        <v>447.8727659010879</v>
+        <v>447.872765901088</v>
       </c>
       <c r="L45" t="n">
         <v>143.2094553810758</v>
       </c>
       <c r="M45" t="n">
-        <v>388.2348584251511</v>
+        <v>179.8277345366675</v>
       </c>
       <c r="N45" t="n">
-        <v>447.8727659010879</v>
+        <v>194.0474609850578</v>
       </c>
       <c r="O45" t="n">
         <v>162.9267621292802</v>
       </c>
       <c r="P45" t="n">
-        <v>118.0696631543806</v>
+        <v>252.5815230909697</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.15121305627825</v>
+        <v>373.8717819242029</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.60471059278789</v>
+        <v>33.6047105927879</v>
       </c>
       <c r="K46" t="n">
         <v>187.3061415842025</v>
@@ -38186,16 +38186,16 @@
         <v>329.3614832714727</v>
       </c>
       <c r="N46" t="n">
-        <v>322.871067038872</v>
+        <v>322.8710670388716</v>
       </c>
       <c r="O46" t="n">
         <v>291.6575168012933</v>
       </c>
       <c r="P46" t="n">
-        <v>230.022107638029</v>
+        <v>230.0221076380294</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.87776097250641</v>
+        <v>78.87776097250642</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
